--- a/A-开发相关文档素材/4.讯飞语音/1.语料素材/gtd_schedule_find.xlsx
+++ b/A-开发相关文档素材/4.讯飞语音/1.语料素材/gtd_schedule_find.xlsx
@@ -7,369 +7,18 @@
     <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
-    <t>{time}有啥[事|安排|事情]</t>
-  </si>
-  <si>
-    <t>{time}有什么[事|安排|事情]</t>
-  </si>
-  <si>
-    <t>{time}我有啥[事|安排|事情]</t>
-  </si>
-  <si>
-    <t>{time}我有什么[事|安排|事情]</t>
-  </si>
-  <si>
-    <t>{time}有啥[任务|计划|打算]</t>
-  </si>
-  <si>
-    <t>{time}有什么[任务|计划|打算]</t>
-  </si>
-  <si>
-    <t>{time}我有啥[任务|计划|打算]</t>
-  </si>
-  <si>
-    <t>{time}我有什么[任务|计划|打算]</t>
-  </si>
-  <si>
-    <t>{time}有些啥[事|安排|事情]</t>
-  </si>
-  <si>
-    <t>{time}有些什么[事|安排|事情]</t>
-  </si>
-  <si>
-    <t>{time}我有些啥[事|安排|事情]</t>
-  </si>
-  <si>
-    <t>{time}我有些什么[事|安排|事情]</t>
-  </si>
-  <si>
-    <t>{time}有些啥[任务|计划|打算]</t>
-  </si>
-  <si>
-    <t>{time}有些什么[任务|计划|打算]</t>
-  </si>
-  <si>
-    <t>{time}我有些啥[任务|计划|打算]</t>
-  </si>
-  <si>
-    <t>{time}我有些什么[任务|计划|打算]</t>
-  </si>
-  <si>
-    <t>{time}去[哪|哪里]</t>
-  </si>
-  <si>
-    <t>{time}要去[哪|哪里]</t>
-  </si>
-  <si>
-    <t>{time}准备去[哪|哪里]</t>
-  </si>
-  <si>
-    <t>{time}安排去[哪|哪里]</t>
-  </si>
-  <si>
-    <t>{time}计划去[哪|哪里]</t>
-  </si>
-  <si>
-    <t>{time}要[干嘛|干啥|干什么|做啥|做什么]</t>
-  </si>
-  <si>
-    <t>{time}去[干嘛|干啥|干什么|做啥|做什么]</t>
-  </si>
-  <si>
-    <t>{time}要去[干嘛|干啥|干什么|做啥|做什么]</t>
-  </si>
-  <si>
-    <t>{time}准备[干嘛|干啥|干什么|做啥|做什么]</t>
-  </si>
-  <si>
-    <t>{time}准备去[干嘛|干啥|干什么|做啥|做什么]</t>
-  </si>
-  <si>
-    <t>{time}我要[干嘛|干啥|干什么|做啥|做什么]</t>
-  </si>
-  <si>
-    <t>{time}我要去[干嘛|干啥|干什么|做啥|做什么]</t>
-  </si>
-  <si>
-    <t>{time}要[干些啥|干些什么|做些啥|做些什么]</t>
-  </si>
-  <si>
-    <t>{time}去[干些啥|干些什么|做些啥|做些什么]</t>
-  </si>
-  <si>
-    <t>{time}要去[干些啥|干些什么|做些啥|做些什么]</t>
-  </si>
-  <si>
-    <t>{time}准备[干些啥|干些什么|做些啥|做些什么]</t>
-  </si>
-  <si>
-    <t>{time}准备去[干些啥|干些什么|做些啥|做些什么]</t>
-  </si>
-  <si>
-    <t>{time}我要[干些啥|干些什么|做些啥|做些什么]</t>
-  </si>
-  <si>
-    <t>{time}我要去[干些啥|干些什么|做些啥|做些什么]</t>
-  </si>
-  <si>
-    <t>{time}要[干点啥|干点什么|做点啥|做点什么]</t>
-  </si>
-  <si>
-    <t>{time}去[干点啥|干点什么|做点啥|做点什么]</t>
-  </si>
-  <si>
-    <t>{time}要去[干点啥|干点什么|做点啥|做点什么]</t>
-  </si>
-  <si>
-    <t>{time}准备[干点啥|干点什么|做点啥|做点什么]</t>
-  </si>
-  <si>
-    <t>{time}准备去[干点啥|干点什么|做点啥|做点什么]</t>
-  </si>
-  <si>
-    <t>{time}我要[干点啥|干点什么|做点啥|做点什么]</t>
-  </si>
-  <si>
-    <t>{time}我要去[干点啥|干点什么|做点啥|做点什么]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>我{time}有啥[事|安排|事情]</t>
-  </si>
-  <si>
-    <t>我{time}有什么[事|安排|事情]</t>
-  </si>
-  <si>
-    <t>我{time}有啥[任务|计划|打算]</t>
-  </si>
-  <si>
-    <t>我{time}有什么[任务|计划|打算]</t>
-  </si>
-  <si>
-    <t>我{time}有些啥[事|安排|事情]</t>
-  </si>
-  <si>
-    <t>我{time}有些什么[事|安排|事情]</t>
-  </si>
-  <si>
-    <t>我{time}有些啥[任务|计划|打算]</t>
-  </si>
-  <si>
-    <t>我{time}有些什么[任务|计划|打算]</t>
-  </si>
-  <si>
-    <t>我{time}要[干嘛|干啥|干什么|做啥|做什么]</t>
-  </si>
-  <si>
-    <t>我{time}去[干嘛|干啥|干什么|做啥|做什么]</t>
-  </si>
-  <si>
-    <t>我{time}要去[干嘛|干啥|干什么|做啥|做什么]</t>
-  </si>
-  <si>
-    <t>我{time}准备[干嘛|干啥|干什么|做啥|做什么]</t>
-  </si>
-  <si>
-    <t>我{time}准备去[干嘛|干啥|干什么|做啥|做什么]</t>
-  </si>
-  <si>
-    <t>我{time}要[干些啥|干些什么|做些啥|做些什么]</t>
-  </si>
-  <si>
-    <t>我{time}去[干些啥|干些什么|做些啥|做些什么]</t>
-  </si>
-  <si>
-    <t>我{time}要去[干些啥|干些什么|做些啥|做些什么]</t>
-  </si>
-  <si>
-    <t>我{time}准备[干些啥|干些什么|做些啥|做些什么]</t>
-  </si>
-  <si>
-    <t>我{time}准备去[干些啥|干些什么|做些啥|做些什么]</t>
-  </si>
-  <si>
-    <t>我{time}要[干点啥|干点什么|做点啥|做点什么]</t>
-  </si>
-  <si>
-    <t>我{time}去[干点啥|干点什么|做点啥|做点什么]</t>
-  </si>
-  <si>
-    <t>我{time}要去[干点啥|干点什么|做点啥|做点什么]</t>
-  </si>
-  <si>
-    <t>我{time}准备[干点啥|干点什么|做点啥|做点什么]</t>
-  </si>
-  <si>
-    <t>我{time}准备去[干点啥|干点什么|做点啥|做点什么]</t>
-  </si>
-  <si>
-    <t>有啥[事|安排|事情]{time}</t>
-  </si>
-  <si>
-    <t>有什么[事|安排|事情]{time}</t>
-  </si>
-  <si>
-    <t>我有啥[事|安排|事情]{time}</t>
-  </si>
-  <si>
-    <t>我有什么[事|安排|事情]{time}</t>
-  </si>
-  <si>
-    <t>有啥[任务|计划|打算]{time}</t>
-  </si>
-  <si>
-    <t>有什么[任务|计划|打算]{time}</t>
-  </si>
-  <si>
-    <t>我有啥[任务|计划|打算]{time}</t>
-  </si>
-  <si>
-    <t>我有什么[任务|计划|打算]{time}</t>
-  </si>
-  <si>
-    <t>有些啥[事|安排|事情]{time}</t>
-  </si>
-  <si>
-    <t>有些什么[事|安排|事情]{time}</t>
-  </si>
-  <si>
-    <t>我有些啥[事|安排|事情]{time}</t>
-  </si>
-  <si>
-    <t>我有些什么[事|安排|事情]{time}</t>
-  </si>
-  <si>
-    <t>有些啥[任务|计划|打算]{time}</t>
-  </si>
-  <si>
-    <t>有些什么[任务|计划|打算]{time}</t>
-  </si>
-  <si>
-    <t>我有些啥[任务|计划|打算]{time}</t>
-  </si>
-  <si>
-    <t>我有些什么[任务|计划|打算]{time}</t>
-  </si>
-  <si>
-    <t>要[干嘛|干啥|干什么|做啥|做什么]{time}</t>
-  </si>
-  <si>
-    <t>去[干嘛|干啥|干什么|做啥|做什么]{time}</t>
-  </si>
-  <si>
-    <t>要去[干嘛|干啥|干什么|做啥|做什么]{time}</t>
-  </si>
-  <si>
-    <t>准备[干嘛|干啥|干什么|做啥|做什么]{time}</t>
-  </si>
-  <si>
-    <t>准备去[干嘛|干啥|干什么|做啥|做什么]{time}</t>
-  </si>
-  <si>
-    <t>我要[干嘛|干啥|干什么|做啥|做什么]{time}</t>
-  </si>
-  <si>
-    <t>我要去[干嘛|干啥|干什么|做啥|做什么]{time}</t>
-  </si>
-  <si>
-    <t>要[干些啥|干些什么|做些啥|做些什么]{time}</t>
-  </si>
-  <si>
-    <t>去[干些啥|干些什么|做些啥|做些什么]{time}</t>
-  </si>
-  <si>
-    <t>要去[干些啥|干些什么|做些啥|做些什么]{time}</t>
-  </si>
-  <si>
-    <t>准备[干些啥|干些什么|做些啥|做些什么]{time}</t>
-  </si>
-  <si>
-    <t>准备去[干些啥|干些什么|做些啥|做些什么]{time}</t>
-  </si>
-  <si>
-    <t>我要[干些啥|干些什么|做些啥|做些什么]{time}</t>
-  </si>
-  <si>
-    <t>我要去[干些啥|干些什么|做些啥|做些什么]{time}</t>
-  </si>
-  <si>
-    <t>要[干点啥|干点什么|做点啥|做点什么]{time}</t>
-  </si>
-  <si>
-    <t>去[干点啥|干点什么|做点啥|做点什么]{time}</t>
-  </si>
-  <si>
-    <t>要去[干点啥|干点什么|做点啥|做点什么]{time}</t>
-  </si>
-  <si>
-    <t>准备[干点啥|干点什么|做点啥|做点什么]{time}</t>
-  </si>
-  <si>
-    <t>准备去[干点啥|干点什么|做点啥|做点什么]{time}</t>
-  </si>
-  <si>
-    <t>我要[干点啥|干点什么|做点啥|做点什么]{time}</t>
-  </si>
-  <si>
-    <t>我要去[干点啥|干点什么|做点啥|做点什么]{time}</t>
-  </si>
-  <si>
-    <t>{schedule}在什么[时候|时间|时间段]</t>
-  </si>
-  <si>
-    <t>{schedule}是什么[时候|时间|时间段]</t>
-  </si>
-  <si>
-    <t>{schedule}在啥[时候|时间|时间段]</t>
-  </si>
-  <si>
-    <t>{schedule}是啥[时候|时间|时间段]</t>
-  </si>
-  <si>
-    <t>{schedule}是在什么[时候|时间|时间段]</t>
-  </si>
-  <si>
-    <t>{schedule}是在啥[时候|时间|时间段]</t>
-  </si>
-  <si>
-    <t>{schedule}在哪天</t>
-  </si>
-  <si>
-    <t>{schedule}是哪天</t>
-  </si>
-  <si>
-    <t>{schedule}是在哪天</t>
-  </si>
-  <si>
-    <t>{schedule}在哪一天</t>
-  </si>
-  <si>
-    <t>{schedule}是哪一天</t>
-  </si>
-  <si>
-    <t>{schedule}是在哪一天</t>
-  </si>
-  <si>
-    <t>{schedule}的时间是哪一天</t>
-  </si>
-  <si>
-    <t>{schedule}的时间在哪一天</t>
-  </si>
-  <si>
-    <t>{schedule}的时间是在哪一天</t>
+    <t>{schedule}[计划|安排]在什么[时间|时间段]</t>
   </si>
   <si>
     <t>{schedule}的[时间|时间段]</t>
@@ -378,289 +27,91 @@
     <t>{schedule}的[时间|时间段]是什么时候</t>
   </si>
   <si>
-    <t>{schedule}的[时间|时间段]是啥时候</t>
-  </si>
-  <si>
-    <t>{schedule}的[时间|时间段]在什么时候</t>
-  </si>
-  <si>
-    <t>{schedule}的[时间|时间段]在啥时候</t>
-  </si>
-  <si>
-    <t>{schedule}的[时间|时间段]是在什么时候</t>
-  </si>
-  <si>
-    <t>{schedule}的[时间|时间段]是在啥时候</t>
-  </si>
-  <si>
-    <t>{schedule}的时间是哪天</t>
-  </si>
-  <si>
-    <t>{schedule}的时间在哪天</t>
-  </si>
-  <si>
-    <t>{schedule}的时间是在哪天</t>
-  </si>
-  <si>
-    <t>{schedule}安排在什么[时候|时间|时间段]</t>
-  </si>
-  <si>
-    <t>{schedule}安排是在什么[时候|时间|时间段]</t>
-  </si>
-  <si>
-    <t>{schedule}是安排在什么[时候|时间|时间段]</t>
-  </si>
-  <si>
-    <t>{schedule}安排在啥[时候|时间|时间段]</t>
-  </si>
-  <si>
-    <t>{schedule}安排是在啥[时候|时间|时间段]</t>
-  </si>
-  <si>
-    <t>{schedule}是安排在啥[时候|时间|时间段]</t>
-  </si>
-  <si>
-    <t>{schedule}[计划|预计|预估]在什么[时候|时间|时间段]</t>
-  </si>
-  <si>
-    <t>{schedule}[计划|预计|预估]是在什么[时候|时间|时间段]</t>
-  </si>
-  <si>
-    <t>{schedule}是[计划|预计|预估]在什么[时候|时间|时间段]</t>
-  </si>
-  <si>
-    <t>{schedule}[计划|预计|预估]在啥[时候|时间|时间段]</t>
-  </si>
-  <si>
-    <t>{schedule}[计划|预计|预估]是在啥[时候|时间|时间段]</t>
-  </si>
-  <si>
-    <t>{schedule}是[计划|预计|预估]在啥[时候|时间|时间段]</t>
-  </si>
-  <si>
     <t>{schedule}开始结束[是|在|是在]什么[时候|时间|时间段]</t>
   </si>
   <si>
-    <t>{schedule}开始结束[是|在|是在]啥[时候|时间|时间段]</t>
+    <t>[安排]什么时候[是|去|做|有][schedule]</t>
   </si>
   <si>
-    <t>啥[时候|时间|时间段]{schedule}</t>
+    <t>{time}有什么事</t>
   </si>
   <si>
-    <t>什么[时候|时间|时间段]{schedule}</t>
+    <t>{time}有什么安排</t>
   </si>
   <si>
-    <t>啥[时候|时间|时间段]去{schedule}</t>
+    <t>{time}有什么日程</t>
   </si>
   <si>
-    <t>什么[时候|时间|时间段]去{schedule}</t>
+    <t>{time}有什么计划</t>
   </si>
   <si>
-    <t>啥[时候|时间|时间段]是{schedule}</t>
+    <t>{time}有什么任务</t>
   </si>
   <si>
-    <t>什么[时候|时间|时间段]是{schedule}</t>
+    <t>{time}要去哪</t>
   </si>
   <si>
-    <t>啥[时候|时间|时间段]要{schedule}</t>
+    <t>{time}要(干什么|做什么)</t>
   </si>
   <si>
-    <t>什么[时候|时间|时间段]要{schedule}</t>
+    <t>{time}准备去哪</t>
   </si>
   <si>
-    <t>什么[时候|时间|时间段]要去{schedule}</t>
+    <t>{time}安排去哪</t>
   </si>
   <si>
-    <t>啥[时候|时间|时间段]要去{schedule}</t>
+    <t>{time}计划去哪</t>
   </si>
   <si>
-    <t>啥[时候|时间|时间段]有{schedule}</t>
+    <t>{time}准备(干什么|做什么)</t>
   </si>
   <si>
-    <t>什么[时候|时间|时间段]有{schedule}</t>
+    <t>{time}计划(干什么|做什么)</t>
   </si>
   <si>
-    <t>[计划|预计|预估]啥[时候|时间|时间段]{schedule}</t>
+    <t>{time}安排(干什么|做什么)</t>
   </si>
   <si>
-    <t>[计划|预计|预估]什么[时候|时间|时间段]{schedule}</t>
+    <t>{time}安排了什么[事情|日程]</t>
   </si>
   <si>
-    <t>[计划|预计|预估]啥[时候|时间|时间段]去{schedule}</t>
+    <t>{time}计划了什么[事情|日程]</t>
   </si>
   <si>
-    <t>[计划|预计|预估]什么[时候|时间|时间段]去{schedule}</t>
+    <t>有什么(事|安排|事情){time}</t>
   </si>
   <si>
-    <t>[计划|预计|预估]啥[时候|时间|时间段]是{schedule}</t>
+    <t>有什么(任务|计划|打算){time}</t>
   </si>
   <si>
-    <t>[计划|预计|预估]什么[时候|时间|时间段]是{schedule}</t>
+    <t>要去哪{time}</t>
   </si>
   <si>
-    <t>[计划|预计|预估]啥[时候|时间|时间段]要{schedule}</t>
+    <t>要(干什么|做什么){time}</t>
   </si>
   <si>
-    <t>[计划|预计|预估]什么[时候|时间|时间段]要{schedule}</t>
+    <t>准备去哪{time}</t>
   </si>
   <si>
-    <t>[计划|预计|预估]啥[时候|时间|时间段]要去{schedule}</t>
+    <t>安排去哪{time}</t>
   </si>
   <si>
-    <t>[计划|预计|预估]什么[时候|时间|时间段]要去{schedule}</t>
+    <t>计划(去哪|哪里){time}</t>
   </si>
   <si>
-    <t>[计划|预计|预估]啥[时候|时间|时间段]有{schedule}</t>
+    <t>准备(干什么|做什么){time}</t>
   </si>
   <si>
-    <t>[计划|预计|预估]什么[时候|时间|时间段]有{schedule}</t>
+    <t>计划(干什么|做什么){time}</t>
   </si>
   <si>
-    <t>安排啥[时候|时间|时间段]{schedule}</t>
+    <t>[计划|预计|预估]什么(时候|时间|时间段)[是|在|要|去]{schedule}</t>
   </si>
   <si>
-    <t>安排什么[时候|时间|时间段]{schedule}</t>
+    <t>安排什么[时候|时间|时间段][是|在|要|去]{schedule}</t>
   </si>
   <si>
-    <t>安排啥[时候|时间|时间段]去{schedule}</t>
-  </si>
-  <si>
-    <t>安排什么[时候|时间|时间段]去{schedule}</t>
-  </si>
-  <si>
-    <t>安排啥[时候|时间|时间段]是{schedule}</t>
-  </si>
-  <si>
-    <t>安排什么[时候|时间|时间段]是{schedule}</t>
-  </si>
-  <si>
-    <t>安排啥[时候|时间|时间段]要{schedule}</t>
-  </si>
-  <si>
-    <t>安排什么[时候|时间|时间段]要{schedule}</t>
-  </si>
-  <si>
-    <t>安排啥[时候|时间|时间段]要去{schedule}</t>
-  </si>
-  <si>
-    <t>安排什么[时候|时间|时间段]要去{schedule}</t>
-  </si>
-  <si>
-    <t>安排啥[时候|时间|时间段]有{schedule}</t>
-  </si>
-  <si>
-    <t>安排什么[时候|时间|时间段]有{schedule}</t>
-  </si>
-  <si>
-    <t>我啥时候{schedule}</t>
-  </si>
-  <si>
-    <t>我啥时间{schedule}</t>
-  </si>
-  <si>
-    <t>我什么时候{schedule}</t>
-  </si>
-  <si>
-    <t>我什么时间{schedule}</t>
-  </si>
-  <si>
-    <t>我啥时候去{schedule}</t>
-  </si>
-  <si>
-    <t>我啥时间去{schedule}</t>
-  </si>
-  <si>
-    <t>我什么时候去{schedule}</t>
-  </si>
-  <si>
-    <t>我什么时间去{schedule}</t>
-  </si>
-  <si>
-    <t>我啥时候是{schedule}</t>
-  </si>
-  <si>
-    <t>我啥时间是{schedule}</t>
-  </si>
-  <si>
-    <t>我什么时候是{schedule}</t>
-  </si>
-  <si>
-    <t>我什么时间是{schedule}</t>
-  </si>
-  <si>
-    <t>我啥时候要{schedule}</t>
-  </si>
-  <si>
-    <t>我啥时间要{schedule}</t>
-  </si>
-  <si>
-    <t>我什么时候要{schedule}</t>
-  </si>
-  <si>
-    <t>我什么时间要{schedule}</t>
-  </si>
-  <si>
-    <t>我啥时候要去{schedule}</t>
-  </si>
-  <si>
-    <t>我啥时间要去{schedule}</t>
-  </si>
-  <si>
-    <t>我什么时候要去{schedule}</t>
-  </si>
-  <si>
-    <t>我什么时间要去{schedule}</t>
-  </si>
-  <si>
-    <t>我啥时候有{schedule}</t>
-  </si>
-  <si>
-    <t>我啥时间有{schedule}</t>
-  </si>
-  <si>
-    <t>我什么时候有{schedule}</t>
-  </si>
-  <si>
-    <t>我什么时间有{schedule}</t>
-  </si>
-  <si>
-    <t>{schedule}在[几月|哪月]</t>
-  </si>
-  <si>
-    <t>{schedule}是[几月|哪月]</t>
-  </si>
-  <si>
-    <t>{schedule}是在[几月|哪月]</t>
-  </si>
-  <si>
-    <t>{schedule}的时间是几[月|月份]</t>
-  </si>
-  <si>
-    <t>{schedule}的时间是什么月份</t>
-  </si>
-  <si>
-    <t>{schedule}的时间在什么月份</t>
-  </si>
-  <si>
-    <t>{schedule}的时间在几[月|月份]</t>
-  </si>
-  <si>
-    <t>{schedule}的时间是在什么月份</t>
-  </si>
-  <si>
-    <t>{schedule}的时间是在几[月|月份]</t>
-  </si>
-  <si>
-    <t>{schedule}[安排|计划]在几[月|月份]</t>
-  </si>
-  <si>
-    <t>{schedule}[安排|计划]是几[月|月份]</t>
-  </si>
-  <si>
-    <t>{schedule}[安排|计划]在什么月份</t>
-  </si>
-  <si>
-    <t>{schedule}[安排|计划]是在什么月份</t>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -669,9 +120,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -679,6 +130,28 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -692,6 +165,37 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -715,9 +219,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -738,21 +242,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -766,61 +271,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -832,6 +283,66 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -847,31 +358,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,13 +400,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,73 +442,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1009,12 +466,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1026,6 +477,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1070,6 +536,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1100,32 +577,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1134,10 +585,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1146,133 +597,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1646,10 +1097,3922 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:S216"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+    </row>
+    <row r="50" spans="1:19">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+    </row>
+    <row r="51" spans="1:19">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+    </row>
+    <row r="52" spans="1:19">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+    </row>
+    <row r="53" spans="1:19">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+    </row>
+    <row r="54" spans="1:19">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+    </row>
+    <row r="55" spans="1:19">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+    </row>
+    <row r="56" spans="1:19">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+    </row>
+    <row r="65" spans="1:19">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+    </row>
+    <row r="66" spans="1:19">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+    </row>
+    <row r="67" spans="1:19">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+    </row>
+    <row r="68" spans="1:19">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+    </row>
+    <row r="69" spans="1:19">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+    </row>
+    <row r="70" spans="1:19">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+    </row>
+    <row r="71" spans="1:19">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+    </row>
+    <row r="72" spans="1:19">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+    </row>
+    <row r="73" spans="1:19">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+    </row>
+    <row r="74" spans="1:19">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+    </row>
+    <row r="75" spans="1:19">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+    </row>
+    <row r="76" spans="1:19">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+    </row>
+    <row r="77" spans="1:19">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+    </row>
+    <row r="78" spans="1:19">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+    </row>
+    <row r="79" spans="1:19">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+    </row>
+    <row r="80" spans="1:19">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+    </row>
+    <row r="81" spans="1:19">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+    </row>
+    <row r="82" spans="1:19">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+    </row>
+    <row r="83" spans="1:19">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+    </row>
+    <row r="84" spans="1:19">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+    </row>
+    <row r="85" spans="1:19">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+    </row>
+    <row r="86" spans="1:19">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+    </row>
+    <row r="87" spans="1:19">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+    </row>
+    <row r="88" spans="1:19">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+    </row>
+    <row r="89" spans="1:19">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+    </row>
+    <row r="90" spans="1:19">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+    </row>
+    <row r="91" spans="1:19">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+    </row>
+    <row r="92" spans="1:19">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+    </row>
+    <row r="93" spans="1:19">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+    </row>
+    <row r="94" spans="1:19">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+    </row>
+    <row r="95" spans="1:19">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+    </row>
+    <row r="96" spans="1:19">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+    </row>
+    <row r="97" spans="1:19">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
+      <c r="S97" s="1"/>
+    </row>
+    <row r="98" spans="1:19">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+    </row>
+    <row r="99" spans="1:19">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+    </row>
+    <row r="100" spans="1:19">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+    </row>
+    <row r="101" spans="1:19">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+    </row>
+    <row r="102" spans="1:19">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+    </row>
+    <row r="103" spans="1:19">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+    </row>
+    <row r="104" spans="1:19">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+    </row>
+    <row r="105" spans="1:19">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+    </row>
+    <row r="106" spans="1:19">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+    </row>
+    <row r="107" spans="1:19">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
+    </row>
+    <row r="108" spans="1:19">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+    </row>
+    <row r="109" spans="1:19">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+    </row>
+    <row r="110" spans="1:19">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+    </row>
+    <row r="111" spans="1:19">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="1"/>
+      <c r="S111" s="1"/>
+    </row>
+    <row r="112" spans="11:19">
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="S112" s="1"/>
+    </row>
+    <row r="113" spans="11:19">
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
+      <c r="Q113" s="1"/>
+      <c r="R113" s="1"/>
+      <c r="S113" s="1"/>
+    </row>
+    <row r="114" spans="11:19">
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
+      <c r="Q114" s="1"/>
+      <c r="R114" s="1"/>
+      <c r="S114" s="1"/>
+    </row>
+    <row r="115" spans="11:19">
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1"/>
+      <c r="Q115" s="1"/>
+      <c r="R115" s="1"/>
+      <c r="S115" s="1"/>
+    </row>
+    <row r="116" spans="11:19">
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
+      <c r="Q116" s="1"/>
+      <c r="R116" s="1"/>
+      <c r="S116" s="1"/>
+    </row>
+    <row r="117" spans="11:19">
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="1"/>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="1"/>
+      <c r="S117" s="1"/>
+    </row>
+    <row r="118" spans="11:19">
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
+    </row>
+    <row r="119" spans="11:19">
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="1"/>
+      <c r="Q119" s="1"/>
+      <c r="R119" s="1"/>
+      <c r="S119" s="1"/>
+    </row>
+    <row r="120" spans="11:19">
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
+      <c r="R120" s="1"/>
+      <c r="S120" s="1"/>
+    </row>
+    <row r="121" spans="11:19">
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="1"/>
+      <c r="Q121" s="1"/>
+      <c r="R121" s="1"/>
+      <c r="S121" s="1"/>
+    </row>
+    <row r="122" spans="11:19">
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+      <c r="O122" s="1"/>
+      <c r="P122" s="1"/>
+      <c r="Q122" s="1"/>
+      <c r="R122" s="1"/>
+      <c r="S122" s="1"/>
+    </row>
+    <row r="123" spans="11:19">
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+      <c r="O123" s="1"/>
+      <c r="P123" s="1"/>
+      <c r="Q123" s="1"/>
+      <c r="R123" s="1"/>
+      <c r="S123" s="1"/>
+    </row>
+    <row r="124" spans="11:19">
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+      <c r="O124" s="1"/>
+      <c r="P124" s="1"/>
+      <c r="Q124" s="1"/>
+      <c r="R124" s="1"/>
+      <c r="S124" s="1"/>
+    </row>
+    <row r="125" spans="11:19">
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+      <c r="O125" s="1"/>
+      <c r="P125" s="1"/>
+      <c r="Q125" s="1"/>
+      <c r="R125" s="1"/>
+      <c r="S125" s="1"/>
+    </row>
+    <row r="126" spans="11:19">
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+      <c r="O126" s="1"/>
+      <c r="P126" s="1"/>
+      <c r="Q126" s="1"/>
+      <c r="R126" s="1"/>
+      <c r="S126" s="1"/>
+    </row>
+    <row r="127" spans="11:19">
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+      <c r="O127" s="1"/>
+      <c r="P127" s="1"/>
+      <c r="Q127" s="1"/>
+      <c r="R127" s="1"/>
+      <c r="S127" s="1"/>
+    </row>
+    <row r="128" spans="11:19">
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+      <c r="O128" s="1"/>
+      <c r="P128" s="1"/>
+      <c r="Q128" s="1"/>
+      <c r="R128" s="1"/>
+      <c r="S128" s="1"/>
+    </row>
+    <row r="129" spans="11:19">
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+      <c r="O129" s="1"/>
+      <c r="P129" s="1"/>
+      <c r="Q129" s="1"/>
+      <c r="R129" s="1"/>
+      <c r="S129" s="1"/>
+    </row>
+    <row r="130" spans="11:19">
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+      <c r="O130" s="1"/>
+      <c r="P130" s="1"/>
+      <c r="Q130" s="1"/>
+      <c r="R130" s="1"/>
+      <c r="S130" s="1"/>
+    </row>
+    <row r="131" spans="11:19">
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+      <c r="O131" s="1"/>
+      <c r="P131" s="1"/>
+      <c r="Q131" s="1"/>
+      <c r="R131" s="1"/>
+      <c r="S131" s="1"/>
+    </row>
+    <row r="132" spans="11:19">
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+      <c r="O132" s="1"/>
+      <c r="P132" s="1"/>
+      <c r="Q132" s="1"/>
+      <c r="R132" s="1"/>
+      <c r="S132" s="1"/>
+    </row>
+    <row r="133" spans="11:19">
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+      <c r="O133" s="1"/>
+      <c r="P133" s="1"/>
+      <c r="Q133" s="1"/>
+      <c r="R133" s="1"/>
+      <c r="S133" s="1"/>
+    </row>
+    <row r="134" spans="11:19">
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+      <c r="O134" s="1"/>
+      <c r="P134" s="1"/>
+      <c r="Q134" s="1"/>
+      <c r="R134" s="1"/>
+      <c r="S134" s="1"/>
+    </row>
+    <row r="135" spans="11:19">
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
+      <c r="O135" s="1"/>
+      <c r="P135" s="1"/>
+      <c r="Q135" s="1"/>
+      <c r="R135" s="1"/>
+      <c r="S135" s="1"/>
+    </row>
+    <row r="136" spans="11:19">
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+      <c r="O136" s="1"/>
+      <c r="P136" s="1"/>
+      <c r="Q136" s="1"/>
+      <c r="R136" s="1"/>
+      <c r="S136" s="1"/>
+    </row>
+    <row r="137" spans="11:19">
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+      <c r="O137" s="1"/>
+      <c r="P137" s="1"/>
+      <c r="Q137" s="1"/>
+      <c r="R137" s="1"/>
+      <c r="S137" s="1"/>
+    </row>
+    <row r="138" spans="11:19">
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+      <c r="O138" s="1"/>
+      <c r="P138" s="1"/>
+      <c r="Q138" s="1"/>
+      <c r="R138" s="1"/>
+      <c r="S138" s="1"/>
+    </row>
+    <row r="139" spans="11:19">
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+      <c r="N139" s="1"/>
+      <c r="O139" s="1"/>
+      <c r="P139" s="1"/>
+      <c r="Q139" s="1"/>
+      <c r="R139" s="1"/>
+      <c r="S139" s="1"/>
+    </row>
+    <row r="140" spans="11:19">
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+      <c r="O140" s="1"/>
+      <c r="P140" s="1"/>
+      <c r="Q140" s="1"/>
+      <c r="R140" s="1"/>
+      <c r="S140" s="1"/>
+    </row>
+    <row r="141" spans="11:19">
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
+      <c r="O141" s="1"/>
+      <c r="P141" s="1"/>
+      <c r="Q141" s="1"/>
+      <c r="R141" s="1"/>
+      <c r="S141" s="1"/>
+    </row>
+    <row r="142" spans="11:19">
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+      <c r="O142" s="1"/>
+      <c r="P142" s="1"/>
+      <c r="Q142" s="1"/>
+      <c r="R142" s="1"/>
+      <c r="S142" s="1"/>
+    </row>
+    <row r="143" spans="11:19">
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+      <c r="O143" s="1"/>
+      <c r="P143" s="1"/>
+      <c r="Q143" s="1"/>
+      <c r="R143" s="1"/>
+      <c r="S143" s="1"/>
+    </row>
+    <row r="144" spans="11:19">
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+      <c r="O144" s="1"/>
+      <c r="P144" s="1"/>
+      <c r="Q144" s="1"/>
+      <c r="R144" s="1"/>
+      <c r="S144" s="1"/>
+    </row>
+    <row r="145" spans="11:19">
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+      <c r="O145" s="1"/>
+      <c r="P145" s="1"/>
+      <c r="Q145" s="1"/>
+      <c r="R145" s="1"/>
+      <c r="S145" s="1"/>
+    </row>
+    <row r="146" spans="11:19">
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+      <c r="O146" s="1"/>
+      <c r="P146" s="1"/>
+      <c r="Q146" s="1"/>
+      <c r="R146" s="1"/>
+      <c r="S146" s="1"/>
+    </row>
+    <row r="147" spans="11:19">
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
+      <c r="O147" s="1"/>
+      <c r="P147" s="1"/>
+      <c r="Q147" s="1"/>
+      <c r="R147" s="1"/>
+      <c r="S147" s="1"/>
+    </row>
+    <row r="148" spans="11:19">
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+      <c r="O148" s="1"/>
+      <c r="P148" s="1"/>
+      <c r="Q148" s="1"/>
+      <c r="R148" s="1"/>
+      <c r="S148" s="1"/>
+    </row>
+    <row r="149" spans="11:19">
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+      <c r="O149" s="1"/>
+      <c r="P149" s="1"/>
+      <c r="Q149" s="1"/>
+      <c r="R149" s="1"/>
+      <c r="S149" s="1"/>
+    </row>
+    <row r="150" spans="11:19">
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+      <c r="O150" s="1"/>
+      <c r="P150" s="1"/>
+      <c r="Q150" s="1"/>
+      <c r="R150" s="1"/>
+      <c r="S150" s="1"/>
+    </row>
+    <row r="151" spans="11:19">
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+      <c r="O151" s="1"/>
+      <c r="P151" s="1"/>
+      <c r="Q151" s="1"/>
+      <c r="R151" s="1"/>
+      <c r="S151" s="1"/>
+    </row>
+    <row r="152" spans="11:19">
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+      <c r="O152" s="1"/>
+      <c r="P152" s="1"/>
+      <c r="Q152" s="1"/>
+      <c r="R152" s="1"/>
+      <c r="S152" s="1"/>
+    </row>
+    <row r="153" spans="11:19">
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+      <c r="O153" s="1"/>
+      <c r="P153" s="1"/>
+      <c r="Q153" s="1"/>
+      <c r="R153" s="1"/>
+      <c r="S153" s="1"/>
+    </row>
+    <row r="154" spans="11:19">
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
+      <c r="O154" s="1"/>
+      <c r="P154" s="1"/>
+      <c r="Q154" s="1"/>
+      <c r="R154" s="1"/>
+      <c r="S154" s="1"/>
+    </row>
+    <row r="155" spans="11:19">
+      <c r="K155" s="1"/>
+      <c r="L155" s="1"/>
+      <c r="M155" s="1"/>
+      <c r="N155" s="1"/>
+      <c r="O155" s="1"/>
+      <c r="P155" s="1"/>
+      <c r="Q155" s="1"/>
+      <c r="R155" s="1"/>
+      <c r="S155" s="1"/>
+    </row>
+    <row r="156" spans="11:19">
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+      <c r="O156" s="1"/>
+      <c r="P156" s="1"/>
+      <c r="Q156" s="1"/>
+      <c r="R156" s="1"/>
+      <c r="S156" s="1"/>
+    </row>
+    <row r="157" spans="11:19">
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+      <c r="N157" s="1"/>
+      <c r="O157" s="1"/>
+      <c r="P157" s="1"/>
+      <c r="Q157" s="1"/>
+      <c r="R157" s="1"/>
+      <c r="S157" s="1"/>
+    </row>
+    <row r="158" spans="11:19">
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
+      <c r="N158" s="1"/>
+      <c r="O158" s="1"/>
+      <c r="P158" s="1"/>
+      <c r="Q158" s="1"/>
+      <c r="R158" s="1"/>
+      <c r="S158" s="1"/>
+    </row>
+    <row r="159" spans="11:19">
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+      <c r="O159" s="1"/>
+      <c r="P159" s="1"/>
+      <c r="Q159" s="1"/>
+      <c r="R159" s="1"/>
+      <c r="S159" s="1"/>
+    </row>
+    <row r="160" spans="11:19">
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+      <c r="O160" s="1"/>
+      <c r="P160" s="1"/>
+      <c r="Q160" s="1"/>
+      <c r="R160" s="1"/>
+      <c r="S160" s="1"/>
+    </row>
+    <row r="161" spans="11:19">
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+      <c r="O161" s="1"/>
+      <c r="P161" s="1"/>
+      <c r="Q161" s="1"/>
+      <c r="R161" s="1"/>
+      <c r="S161" s="1"/>
+    </row>
+    <row r="162" spans="11:19">
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+      <c r="O162" s="1"/>
+      <c r="P162" s="1"/>
+      <c r="Q162" s="1"/>
+      <c r="R162" s="1"/>
+      <c r="S162" s="1"/>
+    </row>
+    <row r="163" spans="11:19">
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="M163" s="1"/>
+      <c r="N163" s="1"/>
+      <c r="O163" s="1"/>
+      <c r="P163" s="1"/>
+      <c r="Q163" s="1"/>
+      <c r="R163" s="1"/>
+      <c r="S163" s="1"/>
+    </row>
+    <row r="164" spans="11:19">
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
+      <c r="O164" s="1"/>
+      <c r="P164" s="1"/>
+      <c r="Q164" s="1"/>
+      <c r="R164" s="1"/>
+      <c r="S164" s="1"/>
+    </row>
+    <row r="165" spans="11:19">
+      <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="M165" s="1"/>
+      <c r="N165" s="1"/>
+      <c r="O165" s="1"/>
+      <c r="P165" s="1"/>
+      <c r="Q165" s="1"/>
+      <c r="R165" s="1"/>
+      <c r="S165" s="1"/>
+    </row>
+    <row r="166" spans="11:19">
+      <c r="K166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="M166" s="1"/>
+      <c r="N166" s="1"/>
+      <c r="O166" s="1"/>
+      <c r="P166" s="1"/>
+      <c r="Q166" s="1"/>
+      <c r="R166" s="1"/>
+      <c r="S166" s="1"/>
+    </row>
+    <row r="167" spans="11:19">
+      <c r="K167" s="1"/>
+      <c r="L167" s="1"/>
+      <c r="M167" s="1"/>
+      <c r="N167" s="1"/>
+      <c r="O167" s="1"/>
+      <c r="P167" s="1"/>
+      <c r="Q167" s="1"/>
+      <c r="R167" s="1"/>
+      <c r="S167" s="1"/>
+    </row>
+    <row r="168" spans="11:19">
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
+      <c r="O168" s="1"/>
+      <c r="P168" s="1"/>
+      <c r="Q168" s="1"/>
+      <c r="R168" s="1"/>
+      <c r="S168" s="1"/>
+    </row>
+    <row r="169" spans="11:19">
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="1"/>
+      <c r="N169" s="1"/>
+      <c r="O169" s="1"/>
+      <c r="P169" s="1"/>
+      <c r="Q169" s="1"/>
+      <c r="R169" s="1"/>
+      <c r="S169" s="1"/>
+    </row>
+    <row r="170" spans="11:19">
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+      <c r="O170" s="1"/>
+      <c r="P170" s="1"/>
+      <c r="Q170" s="1"/>
+      <c r="R170" s="1"/>
+      <c r="S170" s="1"/>
+    </row>
+    <row r="171" spans="11:19">
+      <c r="K171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="M171" s="1"/>
+      <c r="N171" s="1"/>
+      <c r="O171" s="1"/>
+      <c r="P171" s="1"/>
+      <c r="Q171" s="1"/>
+      <c r="R171" s="1"/>
+      <c r="S171" s="1"/>
+    </row>
+    <row r="172" spans="11:19">
+      <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="M172" s="1"/>
+      <c r="N172" s="1"/>
+      <c r="O172" s="1"/>
+      <c r="P172" s="1"/>
+      <c r="Q172" s="1"/>
+      <c r="R172" s="1"/>
+      <c r="S172" s="1"/>
+    </row>
+    <row r="173" spans="11:19">
+      <c r="K173" s="1"/>
+      <c r="L173" s="1"/>
+      <c r="M173" s="1"/>
+      <c r="N173" s="1"/>
+      <c r="O173" s="1"/>
+      <c r="P173" s="1"/>
+      <c r="Q173" s="1"/>
+      <c r="R173" s="1"/>
+      <c r="S173" s="1"/>
+    </row>
+    <row r="174" spans="11:19">
+      <c r="K174" s="1"/>
+      <c r="L174" s="1"/>
+      <c r="M174" s="1"/>
+      <c r="N174" s="1"/>
+      <c r="O174" s="1"/>
+      <c r="P174" s="1"/>
+      <c r="Q174" s="1"/>
+      <c r="R174" s="1"/>
+      <c r="S174" s="1"/>
+    </row>
+    <row r="175" spans="11:19">
+      <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
+      <c r="M175" s="1"/>
+      <c r="N175" s="1"/>
+      <c r="O175" s="1"/>
+      <c r="P175" s="1"/>
+      <c r="Q175" s="1"/>
+      <c r="R175" s="1"/>
+      <c r="S175" s="1"/>
+    </row>
+    <row r="176" spans="11:19">
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+      <c r="O176" s="1"/>
+      <c r="P176" s="1"/>
+      <c r="Q176" s="1"/>
+      <c r="R176" s="1"/>
+      <c r="S176" s="1"/>
+    </row>
+    <row r="177" spans="11:19">
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="1"/>
+      <c r="O177" s="1"/>
+      <c r="P177" s="1"/>
+      <c r="Q177" s="1"/>
+      <c r="R177" s="1"/>
+      <c r="S177" s="1"/>
+    </row>
+    <row r="178" spans="11:19">
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
+      <c r="O178" s="1"/>
+      <c r="P178" s="1"/>
+      <c r="Q178" s="1"/>
+      <c r="R178" s="1"/>
+      <c r="S178" s="1"/>
+    </row>
+    <row r="179" spans="11:19">
+      <c r="K179" s="1"/>
+      <c r="L179" s="1"/>
+      <c r="M179" s="1"/>
+      <c r="N179" s="1"/>
+      <c r="O179" s="1"/>
+      <c r="P179" s="1"/>
+      <c r="Q179" s="1"/>
+      <c r="R179" s="1"/>
+      <c r="S179" s="1"/>
+    </row>
+    <row r="180" spans="11:19">
+      <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
+      <c r="M180" s="1"/>
+      <c r="N180" s="1"/>
+      <c r="O180" s="1"/>
+      <c r="P180" s="1"/>
+      <c r="Q180" s="1"/>
+      <c r="R180" s="1"/>
+      <c r="S180" s="1"/>
+    </row>
+    <row r="181" spans="11:19">
+      <c r="K181" s="1"/>
+      <c r="L181" s="1"/>
+      <c r="M181" s="1"/>
+      <c r="N181" s="1"/>
+      <c r="O181" s="1"/>
+      <c r="P181" s="1"/>
+      <c r="Q181" s="1"/>
+      <c r="R181" s="1"/>
+      <c r="S181" s="1"/>
+    </row>
+    <row r="182" spans="11:19">
+      <c r="K182" s="1"/>
+      <c r="L182" s="1"/>
+      <c r="M182" s="1"/>
+      <c r="N182" s="1"/>
+      <c r="O182" s="1"/>
+      <c r="P182" s="1"/>
+      <c r="Q182" s="1"/>
+      <c r="R182" s="1"/>
+      <c r="S182" s="1"/>
+    </row>
+    <row r="183" spans="11:19">
+      <c r="K183" s="1"/>
+      <c r="L183" s="1"/>
+      <c r="M183" s="1"/>
+      <c r="N183" s="1"/>
+      <c r="O183" s="1"/>
+      <c r="P183" s="1"/>
+      <c r="Q183" s="1"/>
+      <c r="R183" s="1"/>
+      <c r="S183" s="1"/>
+    </row>
+    <row r="184" spans="11:19">
+      <c r="K184" s="1"/>
+      <c r="L184" s="1"/>
+      <c r="M184" s="1"/>
+      <c r="N184" s="1"/>
+      <c r="O184" s="1"/>
+      <c r="P184" s="1"/>
+      <c r="Q184" s="1"/>
+      <c r="R184" s="1"/>
+      <c r="S184" s="1"/>
+    </row>
+    <row r="185" spans="11:19">
+      <c r="K185" s="1"/>
+      <c r="L185" s="1"/>
+      <c r="M185" s="1"/>
+      <c r="N185" s="1"/>
+      <c r="O185" s="1"/>
+      <c r="P185" s="1"/>
+      <c r="Q185" s="1"/>
+      <c r="R185" s="1"/>
+      <c r="S185" s="1"/>
+    </row>
+    <row r="186" spans="11:19">
+      <c r="K186" s="1"/>
+      <c r="L186" s="1"/>
+      <c r="M186" s="1"/>
+      <c r="N186" s="1"/>
+      <c r="O186" s="1"/>
+      <c r="P186" s="1"/>
+      <c r="Q186" s="1"/>
+      <c r="R186" s="1"/>
+      <c r="S186" s="1"/>
+    </row>
+    <row r="187" spans="11:19">
+      <c r="K187" s="1"/>
+      <c r="L187" s="1"/>
+      <c r="M187" s="1"/>
+      <c r="N187" s="1"/>
+      <c r="O187" s="1"/>
+      <c r="P187" s="1"/>
+      <c r="Q187" s="1"/>
+      <c r="R187" s="1"/>
+      <c r="S187" s="1"/>
+    </row>
+    <row r="188" spans="11:19">
+      <c r="K188" s="1"/>
+      <c r="L188" s="1"/>
+      <c r="M188" s="1"/>
+      <c r="N188" s="1"/>
+      <c r="O188" s="1"/>
+      <c r="P188" s="1"/>
+      <c r="Q188" s="1"/>
+      <c r="R188" s="1"/>
+      <c r="S188" s="1"/>
+    </row>
+    <row r="189" spans="11:19">
+      <c r="K189" s="1"/>
+      <c r="L189" s="1"/>
+      <c r="M189" s="1"/>
+      <c r="N189" s="1"/>
+      <c r="O189" s="1"/>
+      <c r="P189" s="1"/>
+      <c r="Q189" s="1"/>
+      <c r="R189" s="1"/>
+      <c r="S189" s="1"/>
+    </row>
+    <row r="190" spans="11:19">
+      <c r="K190" s="1"/>
+      <c r="L190" s="1"/>
+      <c r="M190" s="1"/>
+      <c r="N190" s="1"/>
+      <c r="O190" s="1"/>
+      <c r="P190" s="1"/>
+      <c r="Q190" s="1"/>
+      <c r="R190" s="1"/>
+      <c r="S190" s="1"/>
+    </row>
+    <row r="191" spans="11:19">
+      <c r="K191" s="1"/>
+      <c r="L191" s="1"/>
+      <c r="M191" s="1"/>
+      <c r="N191" s="1"/>
+      <c r="O191" s="1"/>
+      <c r="P191" s="1"/>
+      <c r="Q191" s="1"/>
+      <c r="R191" s="1"/>
+      <c r="S191" s="1"/>
+    </row>
+    <row r="192" spans="11:19">
+      <c r="K192" s="1"/>
+      <c r="L192" s="1"/>
+      <c r="M192" s="1"/>
+      <c r="N192" s="1"/>
+      <c r="O192" s="1"/>
+      <c r="P192" s="1"/>
+      <c r="Q192" s="1"/>
+      <c r="R192" s="1"/>
+      <c r="S192" s="1"/>
+    </row>
+    <row r="193" spans="11:19">
+      <c r="K193" s="1"/>
+      <c r="L193" s="1"/>
+      <c r="M193" s="1"/>
+      <c r="N193" s="1"/>
+      <c r="O193" s="1"/>
+      <c r="P193" s="1"/>
+      <c r="Q193" s="1"/>
+      <c r="R193" s="1"/>
+      <c r="S193" s="1"/>
+    </row>
+    <row r="194" spans="11:19">
+      <c r="K194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="M194" s="1"/>
+      <c r="N194" s="1"/>
+      <c r="O194" s="1"/>
+      <c r="P194" s="1"/>
+      <c r="Q194" s="1"/>
+      <c r="R194" s="1"/>
+      <c r="S194" s="1"/>
+    </row>
+    <row r="195" spans="11:19">
+      <c r="K195" s="1"/>
+      <c r="L195" s="1"/>
+      <c r="M195" s="1"/>
+      <c r="N195" s="1"/>
+      <c r="O195" s="1"/>
+      <c r="P195" s="1"/>
+      <c r="Q195" s="1"/>
+      <c r="R195" s="1"/>
+      <c r="S195" s="1"/>
+    </row>
+    <row r="196" spans="11:19">
+      <c r="K196" s="1"/>
+      <c r="L196" s="1"/>
+      <c r="M196" s="1"/>
+      <c r="N196" s="1"/>
+      <c r="O196" s="1"/>
+      <c r="P196" s="1"/>
+      <c r="Q196" s="1"/>
+      <c r="R196" s="1"/>
+      <c r="S196" s="1"/>
+    </row>
+    <row r="197" spans="11:19">
+      <c r="K197" s="1"/>
+      <c r="L197" s="1"/>
+      <c r="M197" s="1"/>
+      <c r="N197" s="1"/>
+      <c r="O197" s="1"/>
+      <c r="P197" s="1"/>
+      <c r="Q197" s="1"/>
+      <c r="R197" s="1"/>
+      <c r="S197" s="1"/>
+    </row>
+    <row r="198" spans="11:19">
+      <c r="K198" s="1"/>
+      <c r="L198" s="1"/>
+      <c r="M198" s="1"/>
+      <c r="N198" s="1"/>
+      <c r="O198" s="1"/>
+      <c r="P198" s="1"/>
+      <c r="Q198" s="1"/>
+      <c r="R198" s="1"/>
+      <c r="S198" s="1"/>
+    </row>
+    <row r="199" spans="11:19">
+      <c r="K199" s="1"/>
+      <c r="L199" s="1"/>
+      <c r="M199" s="1"/>
+      <c r="N199" s="1"/>
+      <c r="O199" s="1"/>
+      <c r="P199" s="1"/>
+      <c r="Q199" s="1"/>
+      <c r="R199" s="1"/>
+      <c r="S199" s="1"/>
+    </row>
+    <row r="200" spans="11:19">
+      <c r="K200" s="1"/>
+      <c r="L200" s="1"/>
+      <c r="M200" s="1"/>
+      <c r="N200" s="1"/>
+      <c r="O200" s="1"/>
+      <c r="P200" s="1"/>
+      <c r="Q200" s="1"/>
+      <c r="R200" s="1"/>
+      <c r="S200" s="1"/>
+    </row>
+    <row r="201" spans="11:19">
+      <c r="K201" s="1"/>
+      <c r="L201" s="1"/>
+      <c r="M201" s="1"/>
+      <c r="N201" s="1"/>
+      <c r="O201" s="1"/>
+      <c r="P201" s="1"/>
+      <c r="Q201" s="1"/>
+      <c r="R201" s="1"/>
+      <c r="S201" s="1"/>
+    </row>
+    <row r="202" spans="11:19">
+      <c r="K202" s="1"/>
+      <c r="L202" s="1"/>
+      <c r="M202" s="1"/>
+      <c r="N202" s="1"/>
+      <c r="O202" s="1"/>
+      <c r="P202" s="1"/>
+      <c r="Q202" s="1"/>
+      <c r="R202" s="1"/>
+      <c r="S202" s="1"/>
+    </row>
+    <row r="203" spans="11:19">
+      <c r="K203" s="1"/>
+      <c r="L203" s="1"/>
+      <c r="M203" s="1"/>
+      <c r="N203" s="1"/>
+      <c r="O203" s="1"/>
+      <c r="P203" s="1"/>
+      <c r="Q203" s="1"/>
+      <c r="R203" s="1"/>
+      <c r="S203" s="1"/>
+    </row>
+    <row r="204" spans="11:19">
+      <c r="K204" s="1"/>
+      <c r="L204" s="1"/>
+      <c r="M204" s="1"/>
+      <c r="N204" s="1"/>
+      <c r="O204" s="1"/>
+      <c r="P204" s="1"/>
+      <c r="Q204" s="1"/>
+      <c r="R204" s="1"/>
+      <c r="S204" s="1"/>
+    </row>
+    <row r="205" spans="11:19">
+      <c r="K205" s="1"/>
+      <c r="L205" s="1"/>
+      <c r="M205" s="1"/>
+      <c r="N205" s="1"/>
+      <c r="O205" s="1"/>
+      <c r="P205" s="1"/>
+      <c r="Q205" s="1"/>
+      <c r="R205" s="1"/>
+      <c r="S205" s="1"/>
+    </row>
+    <row r="206" spans="11:19">
+      <c r="K206" s="1"/>
+      <c r="L206" s="1"/>
+      <c r="M206" s="1"/>
+      <c r="N206" s="1"/>
+      <c r="O206" s="1"/>
+      <c r="P206" s="1"/>
+      <c r="Q206" s="1"/>
+      <c r="R206" s="1"/>
+      <c r="S206" s="1"/>
+    </row>
+    <row r="207" spans="11:19">
+      <c r="K207" s="1"/>
+      <c r="L207" s="1"/>
+      <c r="M207" s="1"/>
+      <c r="N207" s="1"/>
+      <c r="O207" s="1"/>
+      <c r="P207" s="1"/>
+      <c r="Q207" s="1"/>
+      <c r="R207" s="1"/>
+      <c r="S207" s="1"/>
+    </row>
+    <row r="208" spans="11:19">
+      <c r="K208" s="1"/>
+      <c r="L208" s="1"/>
+      <c r="M208" s="1"/>
+      <c r="N208" s="1"/>
+      <c r="O208" s="1"/>
+      <c r="P208" s="1"/>
+      <c r="Q208" s="1"/>
+      <c r="R208" s="1"/>
+      <c r="S208" s="1"/>
+    </row>
+    <row r="209" spans="11:19">
+      <c r="K209" s="1"/>
+      <c r="L209" s="1"/>
+      <c r="M209" s="1"/>
+      <c r="N209" s="1"/>
+      <c r="O209" s="1"/>
+      <c r="P209" s="1"/>
+      <c r="Q209" s="1"/>
+      <c r="R209" s="1"/>
+      <c r="S209" s="1"/>
+    </row>
+    <row r="210" spans="11:19">
+      <c r="K210" s="1"/>
+      <c r="L210" s="1"/>
+      <c r="M210" s="1"/>
+      <c r="N210" s="1"/>
+      <c r="O210" s="1"/>
+      <c r="P210" s="1"/>
+      <c r="Q210" s="1"/>
+      <c r="R210" s="1"/>
+      <c r="S210" s="1"/>
+    </row>
+    <row r="211" spans="11:19">
+      <c r="K211" s="1"/>
+      <c r="L211" s="1"/>
+      <c r="M211" s="1"/>
+      <c r="N211" s="1"/>
+      <c r="O211" s="1"/>
+      <c r="P211" s="1"/>
+      <c r="Q211" s="1"/>
+      <c r="R211" s="1"/>
+      <c r="S211" s="1"/>
+    </row>
+    <row r="212" spans="11:19">
+      <c r="K212" s="1"/>
+      <c r="L212" s="1"/>
+      <c r="M212" s="1"/>
+      <c r="N212" s="1"/>
+      <c r="O212" s="1"/>
+      <c r="P212" s="1"/>
+      <c r="Q212" s="1"/>
+      <c r="R212" s="1"/>
+      <c r="S212" s="1"/>
+    </row>
+    <row r="213" spans="11:19">
+      <c r="K213" s="1"/>
+      <c r="L213" s="1"/>
+      <c r="M213" s="1"/>
+      <c r="N213" s="1"/>
+      <c r="O213" s="1"/>
+      <c r="P213" s="1"/>
+      <c r="Q213" s="1"/>
+      <c r="R213" s="1"/>
+      <c r="S213" s="1"/>
+    </row>
+    <row r="214" spans="11:19">
+      <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
+      <c r="O214" s="1"/>
+      <c r="P214" s="1"/>
+      <c r="Q214" s="1"/>
+      <c r="R214" s="1"/>
+      <c r="S214" s="1"/>
+    </row>
+    <row r="215" spans="11:19">
+      <c r="K215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="M215" s="1"/>
+      <c r="N215" s="1"/>
+      <c r="O215" s="1"/>
+      <c r="P215" s="1"/>
+      <c r="Q215" s="1"/>
+      <c r="R215" s="1"/>
+      <c r="S215" s="1"/>
+    </row>
+    <row r="216" spans="11:19">
+      <c r="K216" s="1"/>
+      <c r="L216" s="1"/>
+      <c r="M216" s="1"/>
+      <c r="N216" s="1"/>
+      <c r="O216" s="1"/>
+      <c r="P216" s="1"/>
+      <c r="Q216" s="1"/>
+      <c r="R216" s="1"/>
+      <c r="S216" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="326">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="K2:S2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="K3:S3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="K4:S4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="K5:S5"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="K6:S6"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="K7:S7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="K8:S8"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="K9:S9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="K10:S10"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="K11:S11"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="K12:S12"/>
+    <mergeCell ref="K13:S13"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="K14:S14"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="K15:S15"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="K16:S16"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="K17:S17"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="K18:S18"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="K19:S19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="K20:S20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="K21:S21"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="K22:S22"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="K23:S23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="K24:S24"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="K25:S25"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="K26:S26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="K27:S27"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="K28:S28"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="K29:S29"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="K30:S30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="K31:S31"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="K32:S32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="K33:S33"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="K34:S34"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="K35:S35"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="K36:S36"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="K37:S37"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="K38:S38"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="K39:S39"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="K40:S40"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="K41:S41"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="K42:S42"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="K43:S43"/>
+    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="K44:S44"/>
+    <mergeCell ref="A45:I45"/>
+    <mergeCell ref="K45:S45"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="K46:S46"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="K47:S47"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="K48:S48"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="K49:S49"/>
+    <mergeCell ref="A50:I50"/>
+    <mergeCell ref="K50:S50"/>
+    <mergeCell ref="A51:I51"/>
+    <mergeCell ref="K51:S51"/>
+    <mergeCell ref="A52:I52"/>
+    <mergeCell ref="K52:S52"/>
+    <mergeCell ref="A53:I53"/>
+    <mergeCell ref="K53:S53"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="K54:S54"/>
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="K55:S55"/>
+    <mergeCell ref="A56:I56"/>
+    <mergeCell ref="K56:S56"/>
+    <mergeCell ref="A57:I57"/>
+    <mergeCell ref="K57:S57"/>
+    <mergeCell ref="A58:I58"/>
+    <mergeCell ref="K58:S58"/>
+    <mergeCell ref="A59:I59"/>
+    <mergeCell ref="K59:S59"/>
+    <mergeCell ref="A60:I60"/>
+    <mergeCell ref="K60:S60"/>
+    <mergeCell ref="A61:I61"/>
+    <mergeCell ref="K61:S61"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="K62:S62"/>
+    <mergeCell ref="A63:I63"/>
+    <mergeCell ref="K63:S63"/>
+    <mergeCell ref="A64:I64"/>
+    <mergeCell ref="K64:S64"/>
+    <mergeCell ref="A65:I65"/>
+    <mergeCell ref="K65:S65"/>
+    <mergeCell ref="A66:I66"/>
+    <mergeCell ref="K66:S66"/>
+    <mergeCell ref="A67:I67"/>
+    <mergeCell ref="K67:S67"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="K68:S68"/>
+    <mergeCell ref="A69:I69"/>
+    <mergeCell ref="K69:S69"/>
+    <mergeCell ref="A70:I70"/>
+    <mergeCell ref="K70:S70"/>
+    <mergeCell ref="A71:I71"/>
+    <mergeCell ref="K71:S71"/>
+    <mergeCell ref="A72:I72"/>
+    <mergeCell ref="K72:S72"/>
+    <mergeCell ref="A73:I73"/>
+    <mergeCell ref="K73:S73"/>
+    <mergeCell ref="A74:I74"/>
+    <mergeCell ref="K74:S74"/>
+    <mergeCell ref="A75:I75"/>
+    <mergeCell ref="K75:S75"/>
+    <mergeCell ref="A76:I76"/>
+    <mergeCell ref="K76:S76"/>
+    <mergeCell ref="A77:I77"/>
+    <mergeCell ref="K77:S77"/>
+    <mergeCell ref="A78:I78"/>
+    <mergeCell ref="K78:S78"/>
+    <mergeCell ref="A79:I79"/>
+    <mergeCell ref="K79:S79"/>
+    <mergeCell ref="A80:I80"/>
+    <mergeCell ref="K80:S80"/>
+    <mergeCell ref="A81:I81"/>
+    <mergeCell ref="K81:S81"/>
+    <mergeCell ref="A82:I82"/>
+    <mergeCell ref="K82:S82"/>
+    <mergeCell ref="A83:I83"/>
+    <mergeCell ref="K83:S83"/>
+    <mergeCell ref="A84:I84"/>
+    <mergeCell ref="K84:S84"/>
+    <mergeCell ref="A85:I85"/>
+    <mergeCell ref="K85:S85"/>
+    <mergeCell ref="A86:I86"/>
+    <mergeCell ref="K86:S86"/>
+    <mergeCell ref="A87:I87"/>
+    <mergeCell ref="K87:S87"/>
+    <mergeCell ref="A88:I88"/>
+    <mergeCell ref="K88:S88"/>
+    <mergeCell ref="A89:I89"/>
+    <mergeCell ref="K89:S89"/>
+    <mergeCell ref="A90:I90"/>
+    <mergeCell ref="K90:S90"/>
+    <mergeCell ref="A91:I91"/>
+    <mergeCell ref="K91:S91"/>
+    <mergeCell ref="A92:I92"/>
+    <mergeCell ref="K92:S92"/>
+    <mergeCell ref="A93:I93"/>
+    <mergeCell ref="K93:S93"/>
+    <mergeCell ref="A94:I94"/>
+    <mergeCell ref="K94:S94"/>
+    <mergeCell ref="A95:I95"/>
+    <mergeCell ref="K95:S95"/>
+    <mergeCell ref="A96:I96"/>
+    <mergeCell ref="K96:S96"/>
+    <mergeCell ref="A97:I97"/>
+    <mergeCell ref="K97:S97"/>
+    <mergeCell ref="A98:I98"/>
+    <mergeCell ref="K98:S98"/>
+    <mergeCell ref="A99:I99"/>
+    <mergeCell ref="K99:S99"/>
+    <mergeCell ref="A100:I100"/>
+    <mergeCell ref="K100:S100"/>
+    <mergeCell ref="A101:I101"/>
+    <mergeCell ref="K101:S101"/>
+    <mergeCell ref="A102:I102"/>
+    <mergeCell ref="K102:S102"/>
+    <mergeCell ref="A103:I103"/>
+    <mergeCell ref="K103:S103"/>
+    <mergeCell ref="A104:I104"/>
+    <mergeCell ref="K104:S104"/>
+    <mergeCell ref="A105:I105"/>
+    <mergeCell ref="K105:S105"/>
+    <mergeCell ref="A106:I106"/>
+    <mergeCell ref="K106:S106"/>
+    <mergeCell ref="A107:I107"/>
+    <mergeCell ref="K107:S107"/>
+    <mergeCell ref="A108:I108"/>
+    <mergeCell ref="K108:S108"/>
+    <mergeCell ref="A109:I109"/>
+    <mergeCell ref="K109:S109"/>
+    <mergeCell ref="A110:I110"/>
+    <mergeCell ref="K110:S110"/>
+    <mergeCell ref="A111:I111"/>
+    <mergeCell ref="K111:S111"/>
+    <mergeCell ref="K112:S112"/>
+    <mergeCell ref="K113:S113"/>
+    <mergeCell ref="K114:S114"/>
+    <mergeCell ref="K115:S115"/>
+    <mergeCell ref="K116:S116"/>
+    <mergeCell ref="K117:S117"/>
+    <mergeCell ref="K118:S118"/>
+    <mergeCell ref="K119:S119"/>
+    <mergeCell ref="K120:S120"/>
+    <mergeCell ref="K121:S121"/>
+    <mergeCell ref="K122:S122"/>
+    <mergeCell ref="K123:S123"/>
+    <mergeCell ref="K124:S124"/>
+    <mergeCell ref="K125:S125"/>
+    <mergeCell ref="K126:S126"/>
+    <mergeCell ref="K127:S127"/>
+    <mergeCell ref="K128:S128"/>
+    <mergeCell ref="K129:S129"/>
+    <mergeCell ref="K130:S130"/>
+    <mergeCell ref="K131:S131"/>
+    <mergeCell ref="K132:S132"/>
+    <mergeCell ref="K133:S133"/>
+    <mergeCell ref="K134:S134"/>
+    <mergeCell ref="K135:S135"/>
+    <mergeCell ref="K136:S136"/>
+    <mergeCell ref="K137:S137"/>
+    <mergeCell ref="K138:S138"/>
+    <mergeCell ref="K139:S139"/>
+    <mergeCell ref="K140:S140"/>
+    <mergeCell ref="K141:S141"/>
+    <mergeCell ref="K142:S142"/>
+    <mergeCell ref="K143:S143"/>
+    <mergeCell ref="K144:S144"/>
+    <mergeCell ref="K145:S145"/>
+    <mergeCell ref="K146:S146"/>
+    <mergeCell ref="K147:S147"/>
+    <mergeCell ref="K148:S148"/>
+    <mergeCell ref="K149:S149"/>
+    <mergeCell ref="K150:S150"/>
+    <mergeCell ref="K151:S151"/>
+    <mergeCell ref="K152:S152"/>
+    <mergeCell ref="K153:S153"/>
+    <mergeCell ref="K154:S154"/>
+    <mergeCell ref="K155:S155"/>
+    <mergeCell ref="K156:S156"/>
+    <mergeCell ref="K157:S157"/>
+    <mergeCell ref="K158:S158"/>
+    <mergeCell ref="K159:S159"/>
+    <mergeCell ref="K160:S160"/>
+    <mergeCell ref="K161:S161"/>
+    <mergeCell ref="K162:S162"/>
+    <mergeCell ref="K163:S163"/>
+    <mergeCell ref="K164:S164"/>
+    <mergeCell ref="K165:S165"/>
+    <mergeCell ref="K166:S166"/>
+    <mergeCell ref="K167:S167"/>
+    <mergeCell ref="K168:S168"/>
+    <mergeCell ref="K169:S169"/>
+    <mergeCell ref="K170:S170"/>
+    <mergeCell ref="K171:S171"/>
+    <mergeCell ref="K172:S172"/>
+    <mergeCell ref="K173:S173"/>
+    <mergeCell ref="K174:S174"/>
+    <mergeCell ref="K175:S175"/>
+    <mergeCell ref="K176:S176"/>
+    <mergeCell ref="K177:S177"/>
+    <mergeCell ref="K178:S178"/>
+    <mergeCell ref="K179:S179"/>
+    <mergeCell ref="K180:S180"/>
+    <mergeCell ref="K181:S181"/>
+    <mergeCell ref="K182:S182"/>
+    <mergeCell ref="K183:S183"/>
+    <mergeCell ref="K184:S184"/>
+    <mergeCell ref="K185:S185"/>
+    <mergeCell ref="K186:S186"/>
+    <mergeCell ref="K187:S187"/>
+    <mergeCell ref="K188:S188"/>
+    <mergeCell ref="K189:S189"/>
+    <mergeCell ref="K190:S190"/>
+    <mergeCell ref="K191:S191"/>
+    <mergeCell ref="K192:S192"/>
+    <mergeCell ref="K193:S193"/>
+    <mergeCell ref="K194:S194"/>
+    <mergeCell ref="K195:S195"/>
+    <mergeCell ref="K196:S196"/>
+    <mergeCell ref="K197:S197"/>
+    <mergeCell ref="K198:S198"/>
+    <mergeCell ref="K199:S199"/>
+    <mergeCell ref="K200:S200"/>
+    <mergeCell ref="K201:S201"/>
+    <mergeCell ref="K202:S202"/>
+    <mergeCell ref="K203:S203"/>
+    <mergeCell ref="K204:S204"/>
+    <mergeCell ref="K205:S205"/>
+    <mergeCell ref="K206:S206"/>
+    <mergeCell ref="K207:S207"/>
+    <mergeCell ref="K208:S208"/>
+    <mergeCell ref="K209:S209"/>
+    <mergeCell ref="K210:S210"/>
+    <mergeCell ref="K211:S211"/>
+    <mergeCell ref="K212:S212"/>
+    <mergeCell ref="K213:S213"/>
+    <mergeCell ref="K214:S214"/>
+    <mergeCell ref="K215:S215"/>
+    <mergeCell ref="K216:S216"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A1:I1">
+    <cfRule type="duplicateValues" dxfId="0" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:S1">
+    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:I2">
+    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:S2">
+    <cfRule type="duplicateValues" dxfId="0" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:S3">
+    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:I4">
+    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:S4">
+    <cfRule type="duplicateValues" dxfId="0" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:I5">
+    <cfRule type="duplicateValues" dxfId="0" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:I14">
+    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14:S14">
+    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:I15">
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15:S15">
+    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16:S16">
+    <cfRule type="duplicateValues" dxfId="0" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17:S17">
+    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:I21">
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:I22">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:I23">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:I24">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:I25">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:I26">
+    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26:S26">
+    <cfRule type="duplicateValues" dxfId="0" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:I27">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27:S27">
+    <cfRule type="duplicateValues" dxfId="0" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:I28">
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30:S30">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:I34">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:I35">
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:I3 K33:S33">
+    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:S6">
+    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:I7 A36:I111">
+    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7:S8">
+    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:I13">
+    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9:S13">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:I18">
+    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18:S20">
+    <cfRule type="duplicateValues" dxfId="0" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:I20">
+    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21:S21 K25:S25">
+    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22:S24">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28:S29 K31:S32">
+    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:I31">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32:I33">
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34:S35">
+    <cfRule type="duplicateValues" dxfId="0" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36:S216">
+    <cfRule type="duplicateValues" dxfId="0" priority="52"/>
+  </conditionalFormatting>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M215" sqref="M215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1669,9 +5032,7 @@
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1685,9 +5046,7 @@
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1701,9 +5060,7 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1717,9 +5074,7 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1733,9 +5088,7 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1749,9 +5102,7 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1765,9 +5116,7 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1781,9 +5130,7 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1797,9 +5144,7 @@
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1813,9 +5158,7 @@
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1829,9 +5172,7 @@
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1845,9 +5186,7 @@
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1861,9 +5200,7 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1877,9 +5214,7 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1893,9 +5228,7 @@
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1909,9 +5242,7 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1925,9 +5256,7 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1941,9 +5270,7 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1957,9 +5284,7 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1973,9 +5298,7 @@
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1989,9 +5312,7 @@
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2005,9 +5326,7 @@
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2021,9 +5340,7 @@
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2037,9 +5354,7 @@
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2053,9 +5368,7 @@
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -2069,9 +5382,7 @@
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2085,9 +5396,7 @@
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2101,9 +5410,7 @@
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2117,9 +5424,7 @@
       <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2133,9 +5438,7 @@
       <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2149,9 +5452,7 @@
       <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2165,9 +5466,7 @@
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -2181,9 +5480,7 @@
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -2197,9 +5494,7 @@
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -2213,9 +5508,7 @@
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -2229,9 +5522,7 @@
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2245,9 +5536,7 @@
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2261,9 +5550,7 @@
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2277,9 +5564,7 @@
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2293,9 +5578,7 @@
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2309,9 +5592,7 @@
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2325,9 +5606,7 @@
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2352,14 +5631,12 @@
       <c r="I44" s="1"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="L44" s="2"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2373,9 +5650,7 @@
       <c r="L45" s="2"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2389,9 +5664,7 @@
       <c r="L46" s="2"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2405,9 +5678,7 @@
       <c r="L47" s="2"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2421,9 +5692,7 @@
       <c r="L48" s="2"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2437,9 +5706,7 @@
       <c r="L49" s="2"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2453,9 +5720,7 @@
       <c r="L50" s="2"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2469,9 +5734,7 @@
       <c r="L51" s="2"/>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2485,9 +5748,7 @@
       <c r="L52" s="2"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2501,9 +5762,7 @@
       <c r="L53" s="2"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2517,9 +5776,7 @@
       <c r="L54" s="2"/>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2533,9 +5790,7 @@
       <c r="L55" s="2"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2549,9 +5804,7 @@
       <c r="L56" s="2"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2565,9 +5818,7 @@
       <c r="L57" s="2"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2578,9 +5829,7 @@
       <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2591,9 +5840,7 @@
       <c r="I59" s="1"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2604,9 +5851,7 @@
       <c r="I60" s="1"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2617,9 +5862,7 @@
       <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2630,9 +5873,7 @@
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2643,9 +5884,7 @@
       <c r="I63" s="1"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2656,9 +5895,7 @@
       <c r="I64" s="1"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2669,9 +5906,7 @@
       <c r="I65" s="1"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2682,9 +5917,7 @@
       <c r="I66" s="1"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2706,9 +5939,7 @@
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2719,9 +5950,7 @@
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2732,9 +5961,7 @@
       <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2745,9 +5972,7 @@
       <c r="I71" s="1"/>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2758,9 +5983,7 @@
       <c r="I72" s="1"/>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2771,9 +5994,7 @@
       <c r="I73" s="1"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2784,9 +6005,7 @@
       <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2797,9 +6016,7 @@
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2810,9 +6027,7 @@
       <c r="I76" s="1"/>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2823,9 +6038,7 @@
       <c r="I77" s="1"/>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2836,9 +6049,7 @@
       <c r="I78" s="1"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2849,9 +6060,7 @@
       <c r="I79" s="1"/>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2862,9 +6071,7 @@
       <c r="I80" s="1"/>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2875,9 +6082,7 @@
       <c r="I81" s="1"/>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2888,9 +6093,7 @@
       <c r="I82" s="1"/>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2901,9 +6104,7 @@
       <c r="I83" s="1"/>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2914,9 +6115,7 @@
       <c r="I84" s="1"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2927,9 +6126,7 @@
       <c r="I85" s="1"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2940,9 +6137,7 @@
       <c r="I86" s="1"/>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2953,9 +6148,7 @@
       <c r="I87" s="1"/>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2966,9 +6159,7 @@
       <c r="I88" s="1"/>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2979,9 +6170,7 @@
       <c r="I89" s="1"/>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2992,9 +6181,7 @@
       <c r="I90" s="1"/>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3005,9 +6192,7 @@
       <c r="I91" s="1"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3018,9 +6203,7 @@
       <c r="I92" s="1"/>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3031,9 +6214,7 @@
       <c r="I93" s="1"/>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3044,9 +6225,7 @@
       <c r="I94" s="1"/>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3057,9 +6236,7 @@
       <c r="I95" s="1"/>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3070,9 +6247,7 @@
       <c r="I96" s="1"/>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3083,9 +6258,7 @@
       <c r="I97" s="1"/>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3096,9 +6269,7 @@
       <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -3109,9 +6280,7 @@
       <c r="I99" s="1"/>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100" s="1" t="s">
-        <v>97</v>
-      </c>
+      <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3122,9 +6291,7 @@
       <c r="I100" s="1"/>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -3135,9 +6302,7 @@
       <c r="I101" s="1"/>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3148,9 +6313,7 @@
       <c r="I102" s="1"/>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3161,9 +6324,7 @@
       <c r="I103" s="1"/>
     </row>
     <row r="104" spans="1:9">
-      <c r="A104" s="1" t="s">
-        <v>101</v>
-      </c>
+      <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3174,9 +6335,7 @@
       <c r="I104" s="1"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="1" t="s">
-        <v>102</v>
-      </c>
+      <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -3198,9 +6357,7 @@
       <c r="I106" s="1"/>
     </row>
     <row r="107" spans="1:9">
-      <c r="A107" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -3211,9 +6368,7 @@
       <c r="I107" s="1"/>
     </row>
     <row r="108" spans="1:9">
-      <c r="A108" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -3224,9 +6379,7 @@
       <c r="I108" s="1"/>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="1" t="s">
-        <v>105</v>
-      </c>
+      <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -3237,9 +6390,7 @@
       <c r="I109" s="1"/>
     </row>
     <row r="110" spans="1:9">
-      <c r="A110" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -3250,9 +6401,7 @@
       <c r="I110" s="1"/>
     </row>
     <row r="111" spans="1:9">
-      <c r="A111" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -3263,9 +6412,7 @@
       <c r="I111" s="1"/>
     </row>
     <row r="112" spans="1:9">
-      <c r="A112" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -3276,9 +6423,7 @@
       <c r="I112" s="1"/>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -3289,9 +6434,7 @@
       <c r="I113" s="1"/>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3302,9 +6445,7 @@
       <c r="I114" s="1"/>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="1" t="s">
-        <v>111</v>
-      </c>
+      <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -3315,9 +6456,7 @@
       <c r="I115" s="1"/>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -3328,9 +6467,7 @@
       <c r="I116" s="1"/>
     </row>
     <row r="117" spans="1:9">
-      <c r="A117" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -3341,9 +6478,7 @@
       <c r="I117" s="1"/>
     </row>
     <row r="118" spans="1:9">
-      <c r="A118" s="1" t="s">
-        <v>114</v>
-      </c>
+      <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -3354,9 +6489,7 @@
       <c r="I118" s="1"/>
     </row>
     <row r="119" spans="1:9">
-      <c r="A119" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -3367,9 +6500,7 @@
       <c r="I119" s="1"/>
     </row>
     <row r="120" spans="1:9">
-      <c r="A120" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -3380,9 +6511,7 @@
       <c r="I120" s="1"/>
     </row>
     <row r="121" spans="1:9">
-      <c r="A121" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -3393,9 +6522,7 @@
       <c r="I121" s="1"/>
     </row>
     <row r="122" spans="1:9">
-      <c r="A122" s="1" t="s">
-        <v>118</v>
-      </c>
+      <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -3406,9 +6533,7 @@
       <c r="I122" s="1"/>
     </row>
     <row r="123" spans="1:9">
-      <c r="A123" s="1" t="s">
-        <v>119</v>
-      </c>
+      <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -3419,9 +6544,7 @@
       <c r="I123" s="1"/>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -3432,9 +6555,7 @@
       <c r="I124" s="1"/>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="1" t="s">
-        <v>121</v>
-      </c>
+      <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -3445,9 +6566,7 @@
       <c r="I125" s="1"/>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -3458,9 +6577,7 @@
       <c r="I126" s="1"/>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="1" t="s">
-        <v>123</v>
-      </c>
+      <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -3471,9 +6588,7 @@
       <c r="I127" s="1"/>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -3484,9 +6599,7 @@
       <c r="I128" s="1"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="1" t="s">
-        <v>125</v>
-      </c>
+      <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3497,9 +6610,7 @@
       <c r="I129" s="1"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3510,9 +6621,7 @@
       <c r="I130" s="1"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -3523,9 +6632,7 @@
       <c r="I131" s="1"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="1" t="s">
-        <v>128</v>
-      </c>
+      <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3536,9 +6643,7 @@
       <c r="I132" s="1"/>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="1" t="s">
-        <v>129</v>
-      </c>
+      <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3549,9 +6654,7 @@
       <c r="I133" s="1"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -3562,9 +6665,7 @@
       <c r="I134" s="1"/>
     </row>
     <row r="135" spans="1:9">
-      <c r="A135" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -3575,9 +6676,7 @@
       <c r="I135" s="1"/>
     </row>
     <row r="136" spans="1:9">
-      <c r="A136" s="1" t="s">
-        <v>132</v>
-      </c>
+      <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3588,9 +6687,7 @@
       <c r="I136" s="1"/>
     </row>
     <row r="137" spans="1:9">
-      <c r="A137" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -3601,9 +6698,7 @@
       <c r="I137" s="1"/>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="1" t="s">
-        <v>134</v>
-      </c>
+      <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -3614,9 +6709,7 @@
       <c r="I138" s="1"/>
     </row>
     <row r="139" spans="1:9">
-      <c r="A139" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -3627,9 +6720,7 @@
       <c r="I139" s="1"/>
     </row>
     <row r="140" spans="1:9">
-      <c r="A140" s="1" t="s">
-        <v>136</v>
-      </c>
+      <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3640,9 +6731,7 @@
       <c r="I140" s="1"/>
     </row>
     <row r="141" spans="1:9">
-      <c r="A141" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -3653,9 +6742,7 @@
       <c r="I141" s="1"/>
     </row>
     <row r="142" spans="1:9">
-      <c r="A142" s="1" t="s">
-        <v>138</v>
-      </c>
+      <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3666,9 +6753,7 @@
       <c r="I142" s="1"/>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3679,9 +6764,7 @@
       <c r="I143" s="1"/>
     </row>
     <row r="144" spans="1:9">
-      <c r="A144" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3692,9 +6775,7 @@
       <c r="I144" s="1"/>
     </row>
     <row r="145" spans="1:9">
-      <c r="A145" s="1" t="s">
-        <v>141</v>
-      </c>
+      <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -3727,9 +6808,7 @@
       <c r="I147" s="1"/>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -3740,9 +6819,7 @@
       <c r="I148" s="1"/>
     </row>
     <row r="149" spans="1:9">
-      <c r="A149" s="1" t="s">
-        <v>143</v>
-      </c>
+      <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -3753,9 +6830,7 @@
       <c r="I149" s="1"/>
     </row>
     <row r="150" spans="1:9">
-      <c r="A150" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3766,9 +6841,7 @@
       <c r="I150" s="1"/>
     </row>
     <row r="151" spans="1:9">
-      <c r="A151" s="1" t="s">
-        <v>145</v>
-      </c>
+      <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3779,9 +6852,7 @@
       <c r="I151" s="1"/>
     </row>
     <row r="152" spans="1:9">
-      <c r="A152" s="1" t="s">
-        <v>146</v>
-      </c>
+      <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3792,9 +6863,7 @@
       <c r="I152" s="1"/>
     </row>
     <row r="153" spans="1:9">
-      <c r="A153" s="1" t="s">
-        <v>147</v>
-      </c>
+      <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3805,9 +6874,7 @@
       <c r="I153" s="1"/>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="1" t="s">
-        <v>148</v>
-      </c>
+      <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3818,9 +6885,7 @@
       <c r="I154" s="1"/>
     </row>
     <row r="155" spans="1:9">
-      <c r="A155" s="1" t="s">
-        <v>149</v>
-      </c>
+      <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -3831,9 +6896,7 @@
       <c r="I155" s="1"/>
     </row>
     <row r="156" spans="1:9">
-      <c r="A156" s="1" t="s">
-        <v>150</v>
-      </c>
+      <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -3844,9 +6907,7 @@
       <c r="I156" s="1"/>
     </row>
     <row r="157" spans="1:9">
-      <c r="A157" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -3857,9 +6918,7 @@
       <c r="I157" s="1"/>
     </row>
     <row r="158" spans="1:9">
-      <c r="A158" s="1" t="s">
-        <v>152</v>
-      </c>
+      <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -3870,9 +6929,7 @@
       <c r="I158" s="1"/>
     </row>
     <row r="159" spans="1:9">
-      <c r="A159" s="1" t="s">
-        <v>153</v>
-      </c>
+      <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -3894,9 +6951,7 @@
       <c r="I160" s="1"/>
     </row>
     <row r="161" spans="1:9">
-      <c r="A161" s="1" t="s">
-        <v>154</v>
-      </c>
+      <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -3907,9 +6962,7 @@
       <c r="I161" s="1"/>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="1" t="s">
-        <v>155</v>
-      </c>
+      <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -3920,9 +6973,7 @@
       <c r="I162" s="1"/>
     </row>
     <row r="163" spans="1:9">
-      <c r="A163" s="1" t="s">
-        <v>156</v>
-      </c>
+      <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -3933,9 +6984,7 @@
       <c r="I163" s="1"/>
     </row>
     <row r="164" spans="1:9">
-      <c r="A164" s="1" t="s">
-        <v>157</v>
-      </c>
+      <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -3946,9 +6995,7 @@
       <c r="I164" s="1"/>
     </row>
     <row r="165" spans="1:9">
-      <c r="A165" s="1" t="s">
-        <v>158</v>
-      </c>
+      <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -3959,9 +7006,7 @@
       <c r="I165" s="1"/>
     </row>
     <row r="166" spans="1:9">
-      <c r="A166" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -3972,9 +7017,7 @@
       <c r="I166" s="1"/>
     </row>
     <row r="167" spans="1:9">
-      <c r="A167" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -3985,9 +7028,7 @@
       <c r="I167" s="1"/>
     </row>
     <row r="168" spans="1:9">
-      <c r="A168" s="1" t="s">
-        <v>161</v>
-      </c>
+      <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -3998,9 +7039,7 @@
       <c r="I168" s="1"/>
     </row>
     <row r="169" spans="1:9">
-      <c r="A169" s="1" t="s">
-        <v>162</v>
-      </c>
+      <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -4011,9 +7050,7 @@
       <c r="I169" s="1"/>
     </row>
     <row r="170" spans="1:9">
-      <c r="A170" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -4024,9 +7061,7 @@
       <c r="I170" s="1"/>
     </row>
     <row r="171" spans="1:9">
-      <c r="A171" s="1" t="s">
-        <v>164</v>
-      </c>
+      <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -4037,9 +7072,7 @@
       <c r="I171" s="1"/>
     </row>
     <row r="172" spans="1:9">
-      <c r="A172" s="1" t="s">
-        <v>165</v>
-      </c>
+      <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -4061,9 +7094,7 @@
       <c r="I173" s="1"/>
     </row>
     <row r="174" spans="1:9">
-      <c r="A174" s="1" t="s">
-        <v>166</v>
-      </c>
+      <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -4074,9 +7105,7 @@
       <c r="I174" s="1"/>
     </row>
     <row r="175" spans="1:9">
-      <c r="A175" s="1" t="s">
-        <v>167</v>
-      </c>
+      <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -4087,9 +7116,7 @@
       <c r="I175" s="1"/>
     </row>
     <row r="176" spans="1:9">
-      <c r="A176" s="1" t="s">
-        <v>168</v>
-      </c>
+      <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -4100,9 +7127,7 @@
       <c r="I176" s="1"/>
     </row>
     <row r="177" spans="1:9">
-      <c r="A177" s="1" t="s">
-        <v>169</v>
-      </c>
+      <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -4113,9 +7138,7 @@
       <c r="I177" s="1"/>
     </row>
     <row r="178" spans="1:9">
-      <c r="A178" s="1" t="s">
-        <v>170</v>
-      </c>
+      <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -4126,9 +7149,7 @@
       <c r="I178" s="1"/>
     </row>
     <row r="179" spans="1:9">
-      <c r="A179" s="1" t="s">
-        <v>171</v>
-      </c>
+      <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -4139,9 +7160,7 @@
       <c r="I179" s="1"/>
     </row>
     <row r="180" spans="1:9">
-      <c r="A180" s="1" t="s">
-        <v>172</v>
-      </c>
+      <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -4152,9 +7171,7 @@
       <c r="I180" s="1"/>
     </row>
     <row r="181" spans="1:9">
-      <c r="A181" s="1" t="s">
-        <v>173</v>
-      </c>
+      <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -4165,9 +7182,7 @@
       <c r="I181" s="1"/>
     </row>
     <row r="182" spans="1:9">
-      <c r="A182" s="1" t="s">
-        <v>174</v>
-      </c>
+      <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -4178,9 +7193,7 @@
       <c r="I182" s="1"/>
     </row>
     <row r="183" spans="1:9">
-      <c r="A183" s="1" t="s">
-        <v>175</v>
-      </c>
+      <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -4191,9 +7204,7 @@
       <c r="I183" s="1"/>
     </row>
     <row r="184" spans="1:9">
-      <c r="A184" s="1" t="s">
-        <v>176</v>
-      </c>
+      <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -4204,9 +7215,7 @@
       <c r="I184" s="1"/>
     </row>
     <row r="185" spans="1:9">
-      <c r="A185" s="1" t="s">
-        <v>177</v>
-      </c>
+      <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -4239,9 +7248,7 @@
       <c r="I187" s="1"/>
     </row>
     <row r="188" spans="1:9">
-      <c r="A188" s="1" t="s">
-        <v>178</v>
-      </c>
+      <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -4252,9 +7259,7 @@
       <c r="I188" s="1"/>
     </row>
     <row r="189" spans="1:9">
-      <c r="A189" s="1" t="s">
-        <v>179</v>
-      </c>
+      <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -4265,9 +7270,7 @@
       <c r="I189" s="1"/>
     </row>
     <row r="190" spans="1:9">
-      <c r="A190" s="1" t="s">
-        <v>180</v>
-      </c>
+      <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -4278,9 +7281,7 @@
       <c r="I190" s="1"/>
     </row>
     <row r="191" spans="1:9">
-      <c r="A191" s="1" t="s">
-        <v>181</v>
-      </c>
+      <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -4291,9 +7292,7 @@
       <c r="I191" s="1"/>
     </row>
     <row r="192" spans="1:9">
-      <c r="A192" s="1" t="s">
-        <v>182</v>
-      </c>
+      <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -4304,9 +7303,7 @@
       <c r="I192" s="1"/>
     </row>
     <row r="193" spans="1:9">
-      <c r="A193" s="1" t="s">
-        <v>183</v>
-      </c>
+      <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -4317,9 +7314,7 @@
       <c r="I193" s="1"/>
     </row>
     <row r="194" spans="1:9">
-      <c r="A194" s="1" t="s">
-        <v>184</v>
-      </c>
+      <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -4330,9 +7325,7 @@
       <c r="I194" s="1"/>
     </row>
     <row r="195" spans="1:9">
-      <c r="A195" s="1" t="s">
-        <v>185</v>
-      </c>
+      <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -4343,9 +7336,7 @@
       <c r="I195" s="1"/>
     </row>
     <row r="196" spans="1:9">
-      <c r="A196" s="1" t="s">
-        <v>186</v>
-      </c>
+      <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -4356,9 +7347,7 @@
       <c r="I196" s="1"/>
     </row>
     <row r="197" spans="1:9">
-      <c r="A197" s="1" t="s">
-        <v>187</v>
-      </c>
+      <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -4369,9 +7358,7 @@
       <c r="I197" s="1"/>
     </row>
     <row r="198" spans="1:9">
-      <c r="A198" s="1" t="s">
-        <v>188</v>
-      </c>
+      <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -4382,9 +7369,7 @@
       <c r="I198" s="1"/>
     </row>
     <row r="199" spans="1:9">
-      <c r="A199" s="1" t="s">
-        <v>189</v>
-      </c>
+      <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -4395,9 +7380,7 @@
       <c r="I199" s="1"/>
     </row>
     <row r="200" spans="1:9">
-      <c r="A200" s="1" t="s">
-        <v>190</v>
-      </c>
+      <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -4408,9 +7391,7 @@
       <c r="I200" s="1"/>
     </row>
     <row r="201" spans="1:9">
-      <c r="A201" s="1" t="s">
-        <v>191</v>
-      </c>
+      <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -4421,9 +7402,7 @@
       <c r="I201" s="1"/>
     </row>
     <row r="202" spans="1:9">
-      <c r="A202" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -4434,9 +7413,7 @@
       <c r="I202" s="1"/>
     </row>
     <row r="203" spans="1:9">
-      <c r="A203" s="1" t="s">
-        <v>193</v>
-      </c>
+      <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -4447,9 +7424,7 @@
       <c r="I203" s="1"/>
     </row>
     <row r="204" spans="1:9">
-      <c r="A204" s="1" t="s">
-        <v>194</v>
-      </c>
+      <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -4460,9 +7435,7 @@
       <c r="I204" s="1"/>
     </row>
     <row r="205" spans="1:9">
-      <c r="A205" s="1" t="s">
-        <v>195</v>
-      </c>
+      <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -4473,9 +7446,7 @@
       <c r="I205" s="1"/>
     </row>
     <row r="206" spans="1:9">
-      <c r="A206" s="1" t="s">
-        <v>196</v>
-      </c>
+      <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -4486,9 +7457,7 @@
       <c r="I206" s="1"/>
     </row>
     <row r="207" spans="1:9">
-      <c r="A207" s="1" t="s">
-        <v>197</v>
-      </c>
+      <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -4499,9 +7468,7 @@
       <c r="I207" s="1"/>
     </row>
     <row r="208" spans="1:9">
-      <c r="A208" s="1" t="s">
-        <v>198</v>
-      </c>
+      <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -4512,9 +7479,7 @@
       <c r="I208" s="1"/>
     </row>
     <row r="209" spans="1:9">
-      <c r="A209" s="1" t="s">
-        <v>199</v>
-      </c>
+      <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -4525,9 +7490,7 @@
       <c r="I209" s="1"/>
     </row>
     <row r="210" spans="1:9">
-      <c r="A210" s="1" t="s">
-        <v>200</v>
-      </c>
+      <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -4538,9 +7501,7 @@
       <c r="I210" s="1"/>
     </row>
     <row r="211" spans="1:9">
-      <c r="A211" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -5361,21 +8322,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1061"/>
+  <dimension ref="A1:I1070"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I1"/>
+      <selection activeCell="A40" sqref="A40:I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="9.25" customWidth="1"/>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>202</v>
-      </c>
+      <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -5386,9 +8349,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>203</v>
-      </c>
+      <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -5399,9 +8360,7 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5412,9 +8371,7 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>205</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -5425,9 +8382,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>206</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -5438,9 +8393,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -5450,23 +8403,8 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>209</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -5477,9 +8415,7 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>210</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -5490,9 +8426,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>211</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -5503,9 +8437,7 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>212</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -5516,9 +8448,7 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -5529,9 +8459,7 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>214</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -5576,7 +8504,6 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -17069,15 +19996,113 @@
       <c r="H1061" s="1"/>
       <c r="I1061" s="1"/>
     </row>
+    <row r="1062" spans="1:9">
+      <c r="A1062" s="1"/>
+      <c r="B1062" s="1"/>
+      <c r="C1062" s="1"/>
+      <c r="D1062" s="1"/>
+      <c r="E1062" s="1"/>
+      <c r="F1062" s="1"/>
+      <c r="G1062" s="1"/>
+      <c r="H1062" s="1"/>
+      <c r="I1062" s="1"/>
+    </row>
+    <row r="1063" spans="1:9">
+      <c r="A1063" s="1"/>
+      <c r="B1063" s="1"/>
+      <c r="C1063" s="1"/>
+      <c r="D1063" s="1"/>
+      <c r="E1063" s="1"/>
+      <c r="F1063" s="1"/>
+      <c r="G1063" s="1"/>
+      <c r="H1063" s="1"/>
+      <c r="I1063" s="1"/>
+    </row>
+    <row r="1064" spans="1:9">
+      <c r="A1064" s="1"/>
+      <c r="B1064" s="1"/>
+      <c r="C1064" s="1"/>
+      <c r="D1064" s="1"/>
+      <c r="E1064" s="1"/>
+      <c r="F1064" s="1"/>
+      <c r="G1064" s="1"/>
+      <c r="H1064" s="1"/>
+      <c r="I1064" s="1"/>
+    </row>
+    <row r="1065" spans="1:9">
+      <c r="A1065" s="1"/>
+      <c r="B1065" s="1"/>
+      <c r="C1065" s="1"/>
+      <c r="D1065" s="1"/>
+      <c r="E1065" s="1"/>
+      <c r="F1065" s="1"/>
+      <c r="G1065" s="1"/>
+      <c r="H1065" s="1"/>
+      <c r="I1065" s="1"/>
+    </row>
+    <row r="1066" spans="1:9">
+      <c r="A1066" s="1"/>
+      <c r="B1066" s="1"/>
+      <c r="C1066" s="1"/>
+      <c r="D1066" s="1"/>
+      <c r="E1066" s="1"/>
+      <c r="F1066" s="1"/>
+      <c r="G1066" s="1"/>
+      <c r="H1066" s="1"/>
+      <c r="I1066" s="1"/>
+    </row>
+    <row r="1067" spans="1:9">
+      <c r="A1067" s="1"/>
+      <c r="B1067" s="1"/>
+      <c r="C1067" s="1"/>
+      <c r="D1067" s="1"/>
+      <c r="E1067" s="1"/>
+      <c r="F1067" s="1"/>
+      <c r="G1067" s="1"/>
+      <c r="H1067" s="1"/>
+      <c r="I1067" s="1"/>
+    </row>
+    <row r="1068" spans="1:9">
+      <c r="A1068" s="1"/>
+      <c r="B1068" s="1"/>
+      <c r="C1068" s="1"/>
+      <c r="D1068" s="1"/>
+      <c r="E1068" s="1"/>
+      <c r="F1068" s="1"/>
+      <c r="G1068" s="1"/>
+      <c r="H1068" s="1"/>
+      <c r="I1068" s="1"/>
+    </row>
+    <row r="1069" spans="1:9">
+      <c r="A1069" s="1"/>
+      <c r="B1069" s="1"/>
+      <c r="C1069" s="1"/>
+      <c r="D1069" s="1"/>
+      <c r="E1069" s="1"/>
+      <c r="F1069" s="1"/>
+      <c r="G1069" s="1"/>
+      <c r="H1069" s="1"/>
+      <c r="I1069" s="1"/>
+    </row>
+    <row r="1070" spans="1:9">
+      <c r="A1070" s="1"/>
+      <c r="B1070" s="1"/>
+      <c r="C1070" s="1"/>
+      <c r="D1070" s="1"/>
+      <c r="E1070" s="1"/>
+      <c r="F1070" s="1"/>
+      <c r="G1070" s="1"/>
+      <c r="H1070" s="1"/>
+      <c r="I1070" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="1061">
+  <mergeCells count="1068">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:I7"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A10:I10"/>
@@ -17087,7 +20112,6 @@
     <mergeCell ref="A14:I14"/>
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I17"/>
     <mergeCell ref="A18:I18"/>
     <mergeCell ref="A19:I19"/>
     <mergeCell ref="A20:I20"/>
@@ -18132,26 +21156,18 @@
     <mergeCell ref="A1059:I1059"/>
     <mergeCell ref="A1060:I1060"/>
     <mergeCell ref="A1061:I1061"/>
+    <mergeCell ref="A1062:I1062"/>
+    <mergeCell ref="A1063:I1063"/>
+    <mergeCell ref="A1064:I1064"/>
+    <mergeCell ref="A1065:I1065"/>
+    <mergeCell ref="A1066:I1066"/>
+    <mergeCell ref="A1067:I1067"/>
+    <mergeCell ref="A1068:I1068"/>
+    <mergeCell ref="A1069:I1069"/>
+    <mergeCell ref="A1070:I1070"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/A-开发相关文档素材/4.讯飞语音/1.语料素材/gtd_schedule_find.xlsx
+++ b/A-开发相关文档素材/4.讯飞语音/1.语料素材/gtd_schedule_find.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28245" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -16,99 +16,195 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
-    <t>{schedule}[计划|安排]在什么[时间|时间段]</t>
+    <t>[查询|告诉我]{time}的安排</t>
   </si>
   <si>
-    <t>{schedule}的[时间|时间段]</t>
+    <t>[查询|告诉我]{time}的日程</t>
   </si>
   <si>
-    <t>{schedule}的[时间|时间段]是什么时候</t>
+    <t>[查询|告诉我]{time}的任务</t>
   </si>
   <si>
-    <t>{schedule}开始结束[是|在|是在]什么[时候|时间|时间段]</t>
+    <t>[查询|告诉我]{time}有什么事情</t>
   </si>
   <si>
-    <t>[安排]什么时候[是|去|做|有][schedule]</t>
+    <t>[查询|告诉我]{time}有什么安排</t>
   </si>
   <si>
-    <t>{time}有什么事</t>
+    <t>[查询|告诉我]{time}有什么任务</t>
   </si>
   <si>
-    <t>{time}有什么安排</t>
+    <t>[查询|告诉我]{time}有什么日程</t>
   </si>
   <si>
-    <t>{time}有什么日程</t>
+    <t>[查询|告诉我]{time}要做什么[事情]</t>
   </si>
   <si>
-    <t>{time}有什么计划</t>
+    <t>[查询|告诉我]{time}准备做什么[事情]</t>
   </si>
   <si>
-    <t>{time}有什么任务</t>
+    <t>[查询|告诉我]{time}计划做什么[事情]</t>
   </si>
   <si>
-    <t>{time}要去哪</t>
+    <t>[查询|告诉我]{time}安排做什么[事情]</t>
   </si>
   <si>
-    <t>{time}要(干什么|做什么)</t>
+    <t>[查询|告诉我]{time}该做什么[事情]</t>
   </si>
   <si>
-    <t>{time}准备去哪</t>
+    <t>[查询|告诉我]{time}要去哪里</t>
   </si>
   <si>
-    <t>{time}安排去哪</t>
+    <t>[查询|告诉我]{time}准备去哪里</t>
   </si>
   <si>
-    <t>{time}计划去哪</t>
+    <t>[查询|告诉我]{time}计划去哪里</t>
   </si>
   <si>
-    <t>{time}准备(干什么|做什么)</t>
+    <t>[查询|告诉我]{time}安排去哪里</t>
   </si>
   <si>
-    <t>{time}计划(干什么|做什么)</t>
+    <t>[查询|告诉我]{schedule}(是|在|是在)什么时候</t>
   </si>
   <si>
-    <t>{time}安排(干什么|做什么)</t>
+    <t>[查询|告诉我]{schedule}计划(是|在|是在)什么时候</t>
   </si>
   <si>
-    <t>{time}安排了什么[事情|日程]</t>
+    <t>[查询|告诉我]{schedule}预计(是|在|是在)什么时候</t>
   </si>
   <si>
-    <t>{time}计划了什么[事情|日程]</t>
+    <t>[查询|告诉我]{schedule}结束(是|在|是在)什么时候</t>
   </si>
   <si>
-    <t>有什么(事|安排|事情){time}</t>
+    <t>[查询|告诉我]{schedule}开始(是|在|是在)什么时候</t>
   </si>
   <si>
-    <t>有什么(任务|计划|打算){time}</t>
+    <t>[查询|告诉我]{schedule}[是]安排在什么时候</t>
   </si>
   <si>
-    <t>要去哪{time}</t>
+    <t>[查询|告诉我]{schedule}的时间</t>
   </si>
   <si>
-    <t>要(干什么|做什么){time}</t>
+    <t>[查询|告诉我]{schedule}的时间准备(是|在|是在)什么时候</t>
   </si>
   <si>
-    <t>准备去哪{time}</t>
+    <t>[查询|告诉我]{schedule}的时间计划(是|在|是在)什么时候</t>
   </si>
   <si>
-    <t>安排去哪{time}</t>
+    <t>[查询|告诉我]{schedule}的时间预计(是|在|是在)什么时候</t>
   </si>
   <si>
-    <t>计划(去哪|哪里){time}</t>
+    <t>[查询|告诉我]{schedule}的时间安排(是|在|是在)什么时候</t>
   </si>
   <si>
-    <t>准备(干什么|做什么){time}</t>
+    <t>[查询|告诉我]什么时候[去|是]{schedule}</t>
   </si>
   <si>
-    <t>计划(干什么|做什么){time}</t>
+    <t>什么时候[去|是]{schedule}</t>
   </si>
   <si>
-    <t>[计划|预计|预估]什么(时候|时间|时间段)[是|在|要|去]{schedule}</t>
+    <t>安排什么时候[去|是]{schedule}</t>
   </si>
   <si>
-    <t>安排什么[时候|时间|时间段][是|在|要|去]{schedule}</t>
+    <t>准备什么时候去{schedule}</t>
+  </si>
+  <si>
+    <t>计划什么时候去{schedule}</t>
+  </si>
+  <si>
+    <t>打算什么时候去{schedule}</t>
+  </si>
+  <si>
+    <t>[查询|告诉我]{schedule}(是|在|是在)什么时候(开始|结束)</t>
+  </si>
+  <si>
+    <t>[查询|告诉我]{schedule}计划(是|在|是在)什么时候(开始|结束)</t>
+  </si>
+  <si>
+    <t>[查询|告诉我]{schedule}预计(是|在|是在)什么时候(开始|结束)</t>
+  </si>
+  <si>
+    <t>[查询|告诉我]{schedule}结束(是|在|是在)什么时候(开始|结束)</t>
+  </si>
+  <si>
+    <t>[查询|告诉我]{schedule}开始(是|在|是在)什么时候(开始|结束)</t>
+  </si>
+  <si>
+    <t>[查询|告诉我]{schedule}[是]安排在什么时候(开始|结束)</t>
+  </si>
+  <si>
+    <t>[查询|告诉我]{schedule}的(开始|结束)时间</t>
+  </si>
+  <si>
+    <t>[查询|告诉我]{schedule}的(开始|结束)时间准备(是|在|是在)什么时候</t>
+  </si>
+  <si>
+    <t>[查询|告诉我]{schedule}的(开始|结束)时间计划(是|在|是在)什么时候</t>
+  </si>
+  <si>
+    <t>[查询|告诉我]{schedule}的(开始|结束)时间预计(是|在|是在)什么时候</t>
+  </si>
+  <si>
+    <t>[查询|告诉我]{schedule}的(开始|结束)时间安排(是|在|是在)什么时候</t>
+  </si>
+  <si>
+    <t>[查询|告诉我]什么时候[去|是]{schedule}(开始|结束)</t>
+  </si>
+  <si>
+    <t>什么时候[去|是]{schedule}(开始|结束)</t>
+  </si>
+  <si>
+    <t>安排什么时候{schedule}(开始|结束)</t>
+  </si>
+  <si>
+    <t>准备什么时候{schedule}(开始|结束)</t>
+  </si>
+  <si>
+    <t>计划什么时候{schedule}(开始|结束)</t>
+  </si>
+  <si>
+    <t>打算什么时候{schedule}(开始|结束)</t>
+  </si>
+  <si>
+    <t>[查询|告诉我]{time}的(安排|日程|任务)</t>
+  </si>
+  <si>
+    <t>[查询|告诉我]{time}有什么(事情|安排|任务|日程|打算)</t>
+  </si>
+  <si>
+    <t>[查询|告诉我]{time}[要|准备|计划|安排]做什么[事情]</t>
+  </si>
+  <si>
+    <t>[告诉我]{time}[要|准备|计划|安排]去哪里</t>
+  </si>
+  <si>
+    <t>[查询|告诉我]{schedule}[准备|计划|预计|预估](是|在|是在)什么时候[开始|结束]</t>
+  </si>
+  <si>
+    <t>[查询|告诉我]{schedule}[是]安排在什么时候[开始|结束]</t>
+  </si>
+  <si>
+    <t>[查询|告诉我]{schedule}的[开始|结束]时间</t>
+  </si>
+  <si>
+    <t>[查询|告诉我]{schedule}的[开始|结束]时间(准备|计划|预计|预估)(是|在|是在)什么时候</t>
+  </si>
+  <si>
+    <t>[查询|告诉我]{schedule}的[开始|结束]时间(定|安排)在什么时候</t>
+  </si>
+  <si>
+    <t>[查询|告诉我]什么时候[去|是]{schedule}[开始|结束]</t>
+  </si>
+  <si>
+    <t>(安排)什么时候[去|是]{schedule}</t>
+  </si>
+  <si>
+    <t>(准备|计划|打算)什么时候去{schedule}</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -130,13 +226,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,6 +290,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -255,14 +351,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -276,6 +364,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -283,84 +379,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -382,25 +400,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,7 +484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,13 +508,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,6 +551,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,10 +681,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,16 +693,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,115 +711,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1097,10 +1193,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S216"/>
+  <dimension ref="A1:S213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:I23"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1194,7 +1290,9 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1215,7 +1313,7 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1236,7 +1334,9 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1257,7 +1357,7 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1279,7 +1379,7 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1301,7 +1401,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1323,7 +1423,7 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1345,7 +1445,7 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1366,7 +1466,9 @@
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1387,7 +1489,7 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1409,7 +1511,7 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1431,7 +1533,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1452,14 +1554,10 @@
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="1"/>
+      <c r="A17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1475,7 +1573,7 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1497,7 +1595,7 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1519,7 +1617,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1541,7 +1639,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1563,7 +1661,7 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1585,7 +1683,7 @@
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1606,7 +1704,9 @@
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1627,7 +1727,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1649,7 +1749,7 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1671,7 +1771,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1693,7 +1793,7 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1715,7 +1815,7 @@
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1737,7 +1837,7 @@
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1759,7 +1859,7 @@
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1781,7 +1881,7 @@
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1803,7 +1903,7 @@
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1825,7 +1925,7 @@
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1846,9 +1946,7 @@
       <c r="S34" s="1"/>
     </row>
     <row r="35" spans="1:19">
-      <c r="A35" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1868,7 +1966,9 @@
       <c r="S35" s="1"/>
     </row>
     <row r="36" spans="1:19">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1888,7 +1988,9 @@
       <c r="S36" s="1"/>
     </row>
     <row r="37" spans="1:19">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1908,7 +2010,9 @@
       <c r="S37" s="1"/>
     </row>
     <row r="38" spans="1:19">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1928,7 +2032,9 @@
       <c r="S38" s="1"/>
     </row>
     <row r="39" spans="1:19">
-      <c r="A39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1948,7 +2054,9 @@
       <c r="S39" s="1"/>
     </row>
     <row r="40" spans="1:19">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1968,7 +2076,9 @@
       <c r="S40" s="1"/>
     </row>
     <row r="41" spans="1:19">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1988,7 +2098,9 @@
       <c r="S41" s="1"/>
     </row>
     <row r="42" spans="1:19">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2008,7 +2120,9 @@
       <c r="S42" s="1"/>
     </row>
     <row r="43" spans="1:19">
-      <c r="A43" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2028,7 +2142,9 @@
       <c r="S43" s="1"/>
     </row>
     <row r="44" spans="1:19">
-      <c r="A44" s="1"/>
+      <c r="A44" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2048,7 +2164,9 @@
       <c r="S44" s="1"/>
     </row>
     <row r="45" spans="1:19">
-      <c r="A45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2068,7 +2186,9 @@
       <c r="S45" s="1"/>
     </row>
     <row r="46" spans="1:19">
-      <c r="A46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2088,7 +2208,9 @@
       <c r="S46" s="1"/>
     </row>
     <row r="47" spans="1:19">
-      <c r="A47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2108,7 +2230,9 @@
       <c r="S47" s="1"/>
     </row>
     <row r="48" spans="1:19">
-      <c r="A48" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -2128,7 +2252,9 @@
       <c r="S48" s="1"/>
     </row>
     <row r="49" spans="1:19">
-      <c r="A49" s="1"/>
+      <c r="A49" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2148,7 +2274,9 @@
       <c r="S49" s="1"/>
     </row>
     <row r="50" spans="1:19">
-      <c r="A50" s="1"/>
+      <c r="A50" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2168,7 +2296,9 @@
       <c r="S50" s="1"/>
     </row>
     <row r="51" spans="1:19">
-      <c r="A51" s="1"/>
+      <c r="A51" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2188,7 +2318,9 @@
       <c r="S51" s="1"/>
     </row>
     <row r="52" spans="1:19">
-      <c r="A52" s="1"/>
+      <c r="A52" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -3327,16 +3459,7 @@
       <c r="R108" s="1"/>
       <c r="S108" s="1"/>
     </row>
-    <row r="109" spans="1:19">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
+    <row r="109" spans="11:19">
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
@@ -3347,16 +3470,7 @@
       <c r="R109" s="1"/>
       <c r="S109" s="1"/>
     </row>
-    <row r="110" spans="1:19">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
+    <row r="110" spans="11:19">
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
@@ -3367,16 +3481,7 @@
       <c r="R110" s="1"/>
       <c r="S110" s="1"/>
     </row>
-    <row r="111" spans="1:19">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
+    <row r="111" spans="11:19">
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
@@ -4509,41 +4614,8 @@
       <c r="R213" s="1"/>
       <c r="S213" s="1"/>
     </row>
-    <row r="214" spans="11:19">
-      <c r="K214" s="1"/>
-      <c r="L214" s="1"/>
-      <c r="M214" s="1"/>
-      <c r="N214" s="1"/>
-      <c r="O214" s="1"/>
-      <c r="P214" s="1"/>
-      <c r="Q214" s="1"/>
-      <c r="R214" s="1"/>
-      <c r="S214" s="1"/>
-    </row>
-    <row r="215" spans="11:19">
-      <c r="K215" s="1"/>
-      <c r="L215" s="1"/>
-      <c r="M215" s="1"/>
-      <c r="N215" s="1"/>
-      <c r="O215" s="1"/>
-      <c r="P215" s="1"/>
-      <c r="Q215" s="1"/>
-      <c r="R215" s="1"/>
-      <c r="S215" s="1"/>
-    </row>
-    <row r="216" spans="11:19">
-      <c r="K216" s="1"/>
-      <c r="L216" s="1"/>
-      <c r="M216" s="1"/>
-      <c r="N216" s="1"/>
-      <c r="O216" s="1"/>
-      <c r="P216" s="1"/>
-      <c r="Q216" s="1"/>
-      <c r="R216" s="1"/>
-      <c r="S216" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="326">
+  <mergeCells count="320">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="K1:S1"/>
     <mergeCell ref="A2:I2"/>
@@ -4568,6 +4640,7 @@
     <mergeCell ref="K11:S11"/>
     <mergeCell ref="A12:I12"/>
     <mergeCell ref="K12:S12"/>
+    <mergeCell ref="A13:I13"/>
     <mergeCell ref="K13:S13"/>
     <mergeCell ref="A14:I14"/>
     <mergeCell ref="K14:S14"/>
@@ -4575,7 +4648,6 @@
     <mergeCell ref="K15:S15"/>
     <mergeCell ref="A16:I16"/>
     <mergeCell ref="K16:S16"/>
-    <mergeCell ref="A17:I17"/>
     <mergeCell ref="K17:S17"/>
     <mergeCell ref="A18:I18"/>
     <mergeCell ref="K18:S18"/>
@@ -4759,11 +4831,8 @@
     <mergeCell ref="K107:S107"/>
     <mergeCell ref="A108:I108"/>
     <mergeCell ref="K108:S108"/>
-    <mergeCell ref="A109:I109"/>
     <mergeCell ref="K109:S109"/>
-    <mergeCell ref="A110:I110"/>
     <mergeCell ref="K110:S110"/>
-    <mergeCell ref="A111:I111"/>
     <mergeCell ref="K111:S111"/>
     <mergeCell ref="K112:S112"/>
     <mergeCell ref="K113:S113"/>
@@ -4867,138 +4936,204 @@
     <mergeCell ref="K211:S211"/>
     <mergeCell ref="K212:S212"/>
     <mergeCell ref="K213:S213"/>
-    <mergeCell ref="K214:S214"/>
-    <mergeCell ref="K215:S215"/>
-    <mergeCell ref="K216:S216"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:I1">
+    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:S1">
+    <cfRule type="duplicateValues" dxfId="0" priority="99"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:I2">
+    <cfRule type="duplicateValues" dxfId="0" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:S2">
+    <cfRule type="duplicateValues" dxfId="0" priority="96"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:I3">
+    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:S3">
+    <cfRule type="duplicateValues" dxfId="0" priority="95"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:I4">
+    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:S4">
+    <cfRule type="duplicateValues" dxfId="0" priority="94"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:I5">
+    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:I6">
+    <cfRule type="duplicateValues" dxfId="0" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:I7">
+    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:I8">
+    <cfRule type="duplicateValues" dxfId="0" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:I9">
+    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:I10">
     <cfRule type="duplicateValues" dxfId="0" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:S1">
-    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:I2">
+  <conditionalFormatting sqref="A11:I11">
     <cfRule type="duplicateValues" dxfId="0" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:S2">
-    <cfRule type="duplicateValues" dxfId="0" priority="48"/>
+  <conditionalFormatting sqref="K11:S11">
+    <cfRule type="duplicateValues" dxfId="0" priority="90"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:S3">
-    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
+  <conditionalFormatting sqref="A12:I12">
+    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:I4">
+  <conditionalFormatting sqref="K12:S12">
+    <cfRule type="duplicateValues" dxfId="0" priority="89"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:I13">
+    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13:S13">
+    <cfRule type="duplicateValues" dxfId="0" priority="88"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:I14">
+    <cfRule type="duplicateValues" dxfId="0" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14:S14">
+    <cfRule type="duplicateValues" dxfId="0" priority="87"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:I15">
     <cfRule type="duplicateValues" dxfId="0" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:S4">
-    <cfRule type="duplicateValues" dxfId="0" priority="46"/>
+  <conditionalFormatting sqref="A16:I16">
+    <cfRule type="duplicateValues" dxfId="0" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:I5">
-    <cfRule type="duplicateValues" dxfId="0" priority="32"/>
+  <conditionalFormatting sqref="A20:I20">
+    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:I14">
+  <conditionalFormatting sqref="A21:I21">
+    <cfRule type="duplicateValues" dxfId="0" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:I22">
+    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:I23">
+    <cfRule type="duplicateValues" dxfId="0" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23:S23">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:I24">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24:S24">
+    <cfRule type="duplicateValues" dxfId="0" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:I25">
+    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:I26">
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:I27">
     <cfRule type="duplicateValues" dxfId="0" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:S14">
-    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
+  <conditionalFormatting sqref="K27:S27">
+    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:I15">
+  <conditionalFormatting sqref="A28:I28">
     <cfRule type="duplicateValues" dxfId="0" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:S15">
-    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
+  <conditionalFormatting sqref="A29:I29">
+    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:S16">
-    <cfRule type="duplicateValues" dxfId="0" priority="40"/>
+  <conditionalFormatting sqref="K30:S30">
+    <cfRule type="duplicateValues" dxfId="0" priority="82"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:S17">
-    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
+  <conditionalFormatting sqref="A31:I31">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:I21">
+  <conditionalFormatting sqref="A32:I32">
+    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:I33">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:I34">
+    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:I38">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39:I39">
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:I40">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:I41">
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:I42">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:I43">
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:I44">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:I45">
     <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:I22">
+  <conditionalFormatting sqref="A46:I46">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:I47">
     <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A23:I23">
+  <conditionalFormatting sqref="A49:I49">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:I50">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24:I24">
+  <conditionalFormatting sqref="A51:I51">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25:I25">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:I26">
-    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26:S26">
-    <cfRule type="duplicateValues" dxfId="0" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:I27">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27:S27">
-    <cfRule type="duplicateValues" dxfId="0" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28:I28">
-    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K30:S30">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:I34">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35:I35">
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3:I3 K33:S33">
-    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
+  <conditionalFormatting sqref="A52:I52">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5:S6">
-    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6:I7 A36:I111">
-    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:S8">
-    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="91"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:I13">
-    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
+  <conditionalFormatting sqref="K9:S10">
+    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K9:S13">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="K15:S17">
+    <cfRule type="duplicateValues" dxfId="0" priority="86"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:I18">
-    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
+  <conditionalFormatting sqref="K18:S18 K22:S22">
+    <cfRule type="duplicateValues" dxfId="0" priority="85"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:S20">
-    <cfRule type="duplicateValues" dxfId="0" priority="38"/>
+  <conditionalFormatting sqref="K19:S21">
+    <cfRule type="duplicateValues" dxfId="0" priority="50"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A19:I20">
-    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
+  <conditionalFormatting sqref="K25:S26 K28:S29">
+    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K21:S21 K25:S25">
-    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
+  <conditionalFormatting sqref="K31:S32">
+    <cfRule type="duplicateValues" dxfId="0" priority="74"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22:S24">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="K33:S213">
+    <cfRule type="duplicateValues" dxfId="0" priority="100"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K28:S29 K31:S32">
-    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29:I31">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32:I33">
-    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34:S35">
-    <cfRule type="duplicateValues" dxfId="0" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K36:S216">
-    <cfRule type="duplicateValues" dxfId="0" priority="52"/>
+  <conditionalFormatting sqref="A53:I108">
+    <cfRule type="duplicateValues" dxfId="0" priority="103"/>
   </conditionalFormatting>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5009,16 +5144,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L260"/>
+  <dimension ref="A1:L267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M215" sqref="M215"/>
+      <selection activeCell="A12" sqref="A12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -5027,12 +5164,11 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -5046,7 +5182,9 @@
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5060,7 +5198,9 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -5102,7 +5242,9 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -5116,7 +5258,9 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -5130,7 +5274,9 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -5144,7 +5290,9 @@
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -5158,7 +5306,9 @@
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -5172,7 +5322,9 @@
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -5186,7 +5338,9 @@
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -5200,7 +5354,9 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -5630,9 +5786,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="2"/>
-      <c r="K44" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
     <row r="45" spans="1:12">
@@ -5650,7 +5804,9 @@
       <c r="L45" s="2"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -5730,7 +5886,9 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
+      <c r="K51" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="L51" s="2"/>
     </row>
     <row r="52" spans="1:12">
@@ -5817,7 +5975,7 @@
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:12">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -5827,8 +5985,11 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -5838,8 +5999,11 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -5849,8 +6013,11 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -5860,8 +6027,11 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -5871,8 +6041,11 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -5882,8 +6055,11 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -5893,6 +6069,9 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1"/>
@@ -8050,8 +8229,85 @@
       <c r="H260" s="1"/>
       <c r="I260" s="1"/>
     </row>
+    <row r="261" spans="1:9">
+      <c r="A261" s="1"/>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
+      <c r="E261" s="1"/>
+      <c r="F261" s="1"/>
+      <c r="G261" s="1"/>
+      <c r="H261" s="1"/>
+      <c r="I261" s="1"/>
+    </row>
+    <row r="262" spans="1:9">
+      <c r="A262" s="1"/>
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+      <c r="E262" s="1"/>
+      <c r="F262" s="1"/>
+      <c r="G262" s="1"/>
+      <c r="H262" s="1"/>
+      <c r="I262" s="1"/>
+    </row>
+    <row r="263" spans="1:9">
+      <c r="A263" s="1"/>
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+      <c r="E263" s="1"/>
+      <c r="F263" s="1"/>
+      <c r="G263" s="1"/>
+      <c r="H263" s="1"/>
+      <c r="I263" s="1"/>
+    </row>
+    <row r="264" spans="1:9">
+      <c r="A264" s="1"/>
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
+      <c r="E264" s="1"/>
+      <c r="F264" s="1"/>
+      <c r="G264" s="1"/>
+      <c r="H264" s="1"/>
+      <c r="I264" s="1"/>
+    </row>
+    <row r="265" spans="1:9">
+      <c r="A265" s="1"/>
+      <c r="B265" s="1"/>
+      <c r="C265" s="1"/>
+      <c r="D265" s="1"/>
+      <c r="E265" s="1"/>
+      <c r="F265" s="1"/>
+      <c r="G265" s="1"/>
+      <c r="H265" s="1"/>
+      <c r="I265" s="1"/>
+    </row>
+    <row r="266" spans="1:9">
+      <c r="A266" s="1"/>
+      <c r="B266" s="1"/>
+      <c r="C266" s="1"/>
+      <c r="D266" s="1"/>
+      <c r="E266" s="1"/>
+      <c r="F266" s="1"/>
+      <c r="G266" s="1"/>
+      <c r="H266" s="1"/>
+      <c r="I266" s="1"/>
+    </row>
+    <row r="267" spans="1:9">
+      <c r="A267" s="1"/>
+      <c r="B267" s="1"/>
+      <c r="C267" s="1"/>
+      <c r="D267" s="1"/>
+      <c r="E267" s="1"/>
+      <c r="F267" s="1"/>
+      <c r="G267" s="1"/>
+      <c r="H267" s="1"/>
+      <c r="I267" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="260">
+  <mergeCells count="267">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
@@ -8312,8 +8568,27 @@
     <mergeCell ref="A258:I258"/>
     <mergeCell ref="A259:I259"/>
     <mergeCell ref="A260:I260"/>
+    <mergeCell ref="A261:I261"/>
+    <mergeCell ref="A262:I262"/>
+    <mergeCell ref="A263:I263"/>
+    <mergeCell ref="A264:I264"/>
+    <mergeCell ref="A265:I265"/>
+    <mergeCell ref="A266:I266"/>
+    <mergeCell ref="A267:I267"/>
   </mergeCells>
-  <conditionalFormatting sqref="A$1:I$1048576">
+  <conditionalFormatting sqref="A1:I1">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:I14">
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:I15">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:I13 A22:I1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:I21">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8325,10 +8600,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1070"/>
+  <dimension ref="A1:I1072"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:I40"/>
+      <selection activeCell="A1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8403,6 +8678,17 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
@@ -20095,14 +20381,37 @@
       <c r="H1070" s="1"/>
       <c r="I1070" s="1"/>
     </row>
+    <row r="1071" spans="1:9">
+      <c r="A1071" s="1"/>
+      <c r="B1071" s="1"/>
+      <c r="C1071" s="1"/>
+      <c r="D1071" s="1"/>
+      <c r="E1071" s="1"/>
+      <c r="F1071" s="1"/>
+      <c r="G1071" s="1"/>
+      <c r="H1071" s="1"/>
+      <c r="I1071" s="1"/>
+    </row>
+    <row r="1072" spans="1:9">
+      <c r="A1072" s="1"/>
+      <c r="B1072" s="1"/>
+      <c r="C1072" s="1"/>
+      <c r="D1072" s="1"/>
+      <c r="E1072" s="1"/>
+      <c r="F1072" s="1"/>
+      <c r="G1072" s="1"/>
+      <c r="H1072" s="1"/>
+      <c r="I1072" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="1068">
+  <mergeCells count="1071">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:I7"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A10:I10"/>
@@ -21165,7 +21474,141 @@
     <mergeCell ref="A1068:I1068"/>
     <mergeCell ref="A1069:I1069"/>
     <mergeCell ref="A1070:I1070"/>
+    <mergeCell ref="A1071:I1071"/>
+    <mergeCell ref="A1072:I1072"/>
   </mergeCells>
+  <conditionalFormatting sqref="A1:I1">
+    <cfRule type="duplicateValues" dxfId="0" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:I2">
+    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:I3">
+    <cfRule type="duplicateValues" dxfId="0" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:I4">
+    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:I5">
+    <cfRule type="duplicateValues" dxfId="0" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:I6">
+    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:I7">
+    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:I8">
+    <cfRule type="duplicateValues" dxfId="0" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:I9">
+    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:I10">
+    <cfRule type="duplicateValues" dxfId="0" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:I11">
+    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:I12">
+    <cfRule type="duplicateValues" dxfId="0" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:I13">
+    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:I14">
+    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:I15">
+    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:I16">
+    <cfRule type="duplicateValues" dxfId="0" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:I20">
+    <cfRule type="duplicateValues" dxfId="0" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:I21">
+    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:I22">
+    <cfRule type="duplicateValues" dxfId="0" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:I23">
+    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:I24">
+    <cfRule type="duplicateValues" dxfId="0" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:I25">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:I26">
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:I27">
+    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:I28">
+    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:I29">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:I31">
+    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32:I32">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:I33">
+    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:I34">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:I38">
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39:I39">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:I40">
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:I41">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:I42">
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:I43">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:I44">
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:I45">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:I46">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:I47">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49:I49">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:I50">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:I51">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:I52">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/A-开发相关文档素材/4.讯飞语音/1.语料素材/gtd_schedule_find.xlsx
+++ b/A-开发相关文档素材/4.讯飞语音/1.语料素材/gtd_schedule_find.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
   <si>
     <t>[查询|告诉我]{time}的安排</t>
   </si>
@@ -168,6 +168,24 @@
     <t>打算什么时候{schedule}(开始|结束)</t>
   </si>
   <si>
+    <t>[查询|告诉我]{time}什么时候{schedule}</t>
+  </si>
+  <si>
+    <t>[查询|告诉我]{time}什么时候{schedule}(开始|结束)</t>
+  </si>
+  <si>
+    <t>[查询|告诉我]{time}什么时候(开始|结束){schedule}</t>
+  </si>
+  <si>
+    <t>{schedule}在{time}什么时候</t>
+  </si>
+  <si>
+    <t>{schedule}在{time}什么时候(开始|结束)</t>
+  </si>
+  <si>
+    <t>(开始|结束){schedule}在{time}什么时候</t>
+  </si>
+  <si>
     <t>[查询|告诉我]{time}的(安排|日程|任务)</t>
   </si>
   <si>
@@ -229,21 +247,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -259,52 +262,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -315,9 +272,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,13 +295,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -352,7 +302,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -367,7 +361,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,31 +400,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,6 +425,66 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,90 +520,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -566,6 +542,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -576,41 +594,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,17 +614,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,6 +650,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -681,10 +699,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -693,133 +711,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1195,8 +1213,8 @@
   <sheetPr/>
   <dimension ref="A1:S213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2360,7 +2378,9 @@
       <c r="S53" s="1"/>
     </row>
     <row r="54" spans="1:19">
-      <c r="A54" s="1"/>
+      <c r="A54" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2380,7 +2400,9 @@
       <c r="S54" s="1"/>
     </row>
     <row r="55" spans="1:19">
-      <c r="A55" s="1"/>
+      <c r="A55" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2400,7 +2422,9 @@
       <c r="S55" s="1"/>
     </row>
     <row r="56" spans="1:19">
-      <c r="A56" s="1"/>
+      <c r="A56" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2440,7 +2464,9 @@
       <c r="S57" s="1"/>
     </row>
     <row r="58" spans="1:19">
-      <c r="A58" s="1"/>
+      <c r="A58" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2460,7 +2486,9 @@
       <c r="S58" s="1"/>
     </row>
     <row r="59" spans="1:19">
-      <c r="A59" s="1"/>
+      <c r="A59" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2480,7 +2508,9 @@
       <c r="S59" s="1"/>
     </row>
     <row r="60" spans="1:19">
-      <c r="A60" s="1"/>
+      <c r="A60" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -4938,202 +4968,205 @@
     <mergeCell ref="K213:S213"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:I1">
+    <cfRule type="duplicateValues" dxfId="0" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:S1">
+    <cfRule type="duplicateValues" dxfId="0" priority="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:I2">
     <cfRule type="duplicateValues" dxfId="0" priority="45"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:S1">
-    <cfRule type="duplicateValues" dxfId="0" priority="99"/>
+  <conditionalFormatting sqref="K2:S2">
+    <cfRule type="duplicateValues" dxfId="0" priority="97"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:I2">
+  <conditionalFormatting sqref="A3:I3">
     <cfRule type="duplicateValues" dxfId="0" priority="44"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:S2">
+  <conditionalFormatting sqref="K3:S3">
     <cfRule type="duplicateValues" dxfId="0" priority="96"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:I3">
+  <conditionalFormatting sqref="A4:I4">
     <cfRule type="duplicateValues" dxfId="0" priority="43"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:S3">
+  <conditionalFormatting sqref="K4:S4">
     <cfRule type="duplicateValues" dxfId="0" priority="95"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:I4">
+  <conditionalFormatting sqref="A5:I5">
     <cfRule type="duplicateValues" dxfId="0" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:S4">
+  <conditionalFormatting sqref="A6:I6">
+    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:I7">
+    <cfRule type="duplicateValues" dxfId="0" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:I8">
+    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:I9">
+    <cfRule type="duplicateValues" dxfId="0" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:I10">
+    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:I11">
+    <cfRule type="duplicateValues" dxfId="0" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11:S11">
+    <cfRule type="duplicateValues" dxfId="0" priority="91"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:I12">
+    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12:S12">
+    <cfRule type="duplicateValues" dxfId="0" priority="90"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:I13">
+    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13:S13">
+    <cfRule type="duplicateValues" dxfId="0" priority="89"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:I14">
+    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14:S14">
+    <cfRule type="duplicateValues" dxfId="0" priority="88"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:I15">
+    <cfRule type="duplicateValues" dxfId="0" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:I16">
+    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:I20">
+    <cfRule type="duplicateValues" dxfId="0" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:I21">
+    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:I22">
+    <cfRule type="duplicateValues" dxfId="0" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:I23">
+    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23:S23">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:I24">
+    <cfRule type="duplicateValues" dxfId="0" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24:S24">
+    <cfRule type="duplicateValues" dxfId="0" priority="79"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:I25">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:I26">
+    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27:I27">
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27:S27">
+    <cfRule type="duplicateValues" dxfId="0" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:I28">
+    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:I29">
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30:S30">
+    <cfRule type="duplicateValues" dxfId="0" priority="83"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:I31">
+    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32:I32">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33:I33">
+    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34:I34">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:I38">
+    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39:I39">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:I40">
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:I41">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:I42">
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43:I43">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:I44">
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:I45">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46:I46">
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47:I47">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49:I49">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50:I50">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51:I51">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52:I52">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:S6">
     <cfRule type="duplicateValues" dxfId="0" priority="94"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:I5">
-    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
+  <conditionalFormatting sqref="K7:S8">
+    <cfRule type="duplicateValues" dxfId="0" priority="92"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A6:I6">
-    <cfRule type="duplicateValues" dxfId="0" priority="40"/>
+  <conditionalFormatting sqref="K9:S10">
+    <cfRule type="duplicateValues" dxfId="0" priority="50"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:I7">
-    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:I8">
-    <cfRule type="duplicateValues" dxfId="0" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:I9">
-    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10:I10">
-    <cfRule type="duplicateValues" dxfId="0" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:I11">
-    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11:S11">
-    <cfRule type="duplicateValues" dxfId="0" priority="90"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:I12">
-    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K12:S12">
-    <cfRule type="duplicateValues" dxfId="0" priority="89"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:I13">
-    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13:S13">
-    <cfRule type="duplicateValues" dxfId="0" priority="88"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:I14">
-    <cfRule type="duplicateValues" dxfId="0" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14:S14">
+  <conditionalFormatting sqref="K15:S17">
     <cfRule type="duplicateValues" dxfId="0" priority="87"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A15:I15">
-    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:I16">
-    <cfRule type="duplicateValues" dxfId="0" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20:I20">
-    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21:I21">
-    <cfRule type="duplicateValues" dxfId="0" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22:I22">
-    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23:I23">
-    <cfRule type="duplicateValues" dxfId="0" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23:S23">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24:I24">
-    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24:S24">
-    <cfRule type="duplicateValues" dxfId="0" priority="78"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25:I25">
-    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:I26">
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:I27">
-    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27:S27">
-    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28:I28">
-    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29:I29">
-    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K30:S30">
-    <cfRule type="duplicateValues" dxfId="0" priority="82"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31:I31">
-    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32:I32">
-    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33:I33">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34:I34">
-    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38:I38">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39:I39">
-    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40:I40">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41:I41">
-    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42:I42">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43:I43">
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:I44">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:I45">
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46:I46">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47:I47">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49:I49">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50:I50">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51:I51">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52:I52">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5:S6">
-    <cfRule type="duplicateValues" dxfId="0" priority="93"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K7:S8">
-    <cfRule type="duplicateValues" dxfId="0" priority="91"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K9:S10">
-    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15:S17">
+  <conditionalFormatting sqref="K18:S18 K22:S22">
     <cfRule type="duplicateValues" dxfId="0" priority="86"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:S18 K22:S22">
-    <cfRule type="duplicateValues" dxfId="0" priority="85"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K19:S21">
-    <cfRule type="duplicateValues" dxfId="0" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:S26 K28:S29">
+    <cfRule type="duplicateValues" dxfId="0" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31:S32">
     <cfRule type="duplicateValues" dxfId="0" priority="75"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K31:S32">
-    <cfRule type="duplicateValues" dxfId="0" priority="74"/>
+  <conditionalFormatting sqref="K33:S213">
+    <cfRule type="duplicateValues" dxfId="0" priority="101"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K33:S213">
-    <cfRule type="duplicateValues" dxfId="0" priority="100"/>
+  <conditionalFormatting sqref="A53:I53 A57:I108">
+    <cfRule type="duplicateValues" dxfId="0" priority="104"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53:I108">
-    <cfRule type="duplicateValues" dxfId="0" priority="103"/>
+  <conditionalFormatting sqref="A54:I56">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5147,14 +5180,14 @@
   <dimension ref="A1:L267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:I12"/>
+      <selection activeCell="A16" sqref="A16:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5167,7 +5200,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -5183,7 +5216,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -5199,7 +5232,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -5243,7 +5276,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -5259,7 +5292,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -5275,7 +5308,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -5291,7 +5324,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -5307,7 +5340,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -5323,7 +5356,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -5339,7 +5372,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -5355,7 +5388,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5384,7 +5417,9 @@
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -5398,7 +5433,9 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -5412,7 +5449,9 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -5805,7 +5844,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -5887,7 +5926,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="L51" s="2"/>
     </row>

--- a/A-开发相关文档素材/4.讯飞语音/1.语料素材/gtd_schedule_find.xlsx
+++ b/A-开发相关文档素材/4.讯飞语音/1.语料素材/gtd_schedule_find.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12540"/>
+    <workbookView windowWidth="20460" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>[查询|告诉我]{time}的安排</t>
   </si>
@@ -186,42 +186,6 @@
     <t>(开始|结束){schedule}在{time}什么时候</t>
   </si>
   <si>
-    <t>[查询|告诉我]{time}的(安排|日程|任务)</t>
-  </si>
-  <si>
-    <t>[查询|告诉我]{time}有什么(事情|安排|任务|日程|打算)</t>
-  </si>
-  <si>
-    <t>[查询|告诉我]{time}[要|准备|计划|安排]做什么[事情]</t>
-  </si>
-  <si>
-    <t>[告诉我]{time}[要|准备|计划|安排]去哪里</t>
-  </si>
-  <si>
-    <t>[查询|告诉我]{schedule}[准备|计划|预计|预估](是|在|是在)什么时候[开始|结束]</t>
-  </si>
-  <si>
-    <t>[查询|告诉我]{schedule}[是]安排在什么时候[开始|结束]</t>
-  </si>
-  <si>
-    <t>[查询|告诉我]{schedule}的[开始|结束]时间</t>
-  </si>
-  <si>
-    <t>[查询|告诉我]{schedule}的[开始|结束]时间(准备|计划|预计|预估)(是|在|是在)什么时候</t>
-  </si>
-  <si>
-    <t>[查询|告诉我]{schedule}的[开始|结束]时间(定|安排)在什么时候</t>
-  </si>
-  <si>
-    <t>[查询|告诉我]什么时候[去|是]{schedule}[开始|结束]</t>
-  </si>
-  <si>
-    <t>(安排)什么时候[去|是]{schedule}</t>
-  </si>
-  <si>
-    <t>(准备|计划|打算)什么时候去{schedule}</t>
-  </si>
-  <si>
     <t>.</t>
   </si>
   <si>
@@ -233,10 +197,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -244,6 +208,21 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -262,11 +241,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -278,17 +257,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,21 +279,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,22 +303,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,16 +316,24 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,9 +347,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,7 +364,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,7 +382,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,13 +436,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,7 +460,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,37 +496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,25 +508,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,31 +526,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,24 +560,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,7 +573,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,8 +596,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,6 +617,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -680,17 +655,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -699,10 +663,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,133 +675,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1213,8 +1177,8 @@
   <sheetPr/>
   <dimension ref="A1:S213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:I61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5180,15 +5144,13 @@
   <dimension ref="A1:L267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:I18"/>
+      <selection activeCell="A27" sqref="A27:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -5199,9 +5161,7 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -5215,9 +5175,7 @@
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5231,9 +5189,7 @@
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -5275,9 +5231,7 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -5291,9 +5245,7 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -5307,9 +5259,7 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -5323,9 +5273,7 @@
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -5339,9 +5287,7 @@
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -5355,9 +5301,7 @@
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -5371,9 +5315,7 @@
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -5387,9 +5329,7 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -5417,9 +5357,7 @@
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -5433,9 +5371,7 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -5449,9 +5385,7 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -5844,7 +5778,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -5926,7 +5860,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="L51" s="2"/>
     </row>
@@ -8616,18 +8550,21 @@
     <mergeCell ref="A267:I267"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:I1">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:I14">
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:I15">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:I13 A23:I1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:I19">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:I13 A22:I1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:I21">
+  <conditionalFormatting sqref="A20:I22">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
